--- a/dihadron/expdata/2000.xlsx
+++ b/dihadron/expdata/2000.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DAFCFC2-11AD-7944-AE0C-637B29D035A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="23">
   <si>
     <t>col</t>
   </si>
@@ -77,11 +87,23 @@
   <si>
     <t>sintheta2</t>
   </si>
+  <si>
+    <t>1+cost2theta</t>
+  </si>
+  <si>
+    <t>cos2theta</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,19 +428,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="14" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="12" width="12.83203125" customWidth="1"/>
+    <col min="13" max="18" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -435,40 +460,52 @@
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -485,43 +522,56 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.34</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J2" s="1">
         <v>0.85</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L2" s="1">
+        <f>K2-1</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.93</v>
       </c>
-      <c r="J2" s="1">
+      <c r="N2" s="1">
         <v>0.7</v>
       </c>
-      <c r="K2" s="1">
+      <c r="O2" s="1">
         <v>0.38</v>
       </c>
-      <c r="L2">
-        <f>-K2/100</f>
+      <c r="P2">
+        <f>-O2/100</f>
         <v>-3.8E-3</v>
       </c>
-      <c r="M2" s="1">
+      <c r="Q2" s="1">
         <v>0.09</v>
       </c>
-      <c r="N2">
-        <f>M2/100</f>
+      <c r="R2">
+        <f>Q2/100</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="O2" s="1">
+      <c r="S2" s="1">
         <v>0.27</v>
       </c>
-      <c r="P2">
-        <f>O2/100</f>
+      <c r="T2">
+        <f>S2/100</f>
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -538,43 +588,56 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.34</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J3" s="1">
         <v>0.84</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L59" si="0">K3-1</f>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M3" s="1">
         <v>0.93</v>
       </c>
-      <c r="J3" s="1">
+      <c r="N3" s="1">
         <v>0.92</v>
       </c>
-      <c r="K3" s="1">
+      <c r="O3" s="1">
         <v>0.39</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L59" si="0">-K3/100</f>
+      <c r="P3">
+        <f t="shared" ref="P3:P59" si="1">-O3/100</f>
         <v>-3.9000000000000003E-3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="Q3" s="1">
         <v>0.08</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N56" si="1">M3/100</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R56" si="2">Q3/100</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O3" s="1">
+      <c r="S3" s="1">
         <v>0.27</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P56" si="2">O3/100</f>
+      <c r="T3">
+        <f t="shared" ref="T3:T56" si="3">S3/100</f>
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -591,43 +654,56 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.35</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.84</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M4" s="1">
         <v>0.93</v>
       </c>
-      <c r="J4" s="1">
+      <c r="N4" s="1">
         <v>0.87</v>
       </c>
-      <c r="K4" s="1">
+      <c r="O4" s="1">
         <v>0.42</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
+      <c r="P4">
+        <f t="shared" si="1"/>
         <v>-4.1999999999999997E-3</v>
       </c>
-      <c r="M4" s="1">
+      <c r="Q4" s="1">
         <v>0.08</v>
       </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
+      <c r="R4">
+        <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O4" s="1">
+      <c r="S4" s="1">
         <v>0.27</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="2"/>
+      <c r="T4">
+        <f t="shared" si="3"/>
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -644,43 +720,56 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.35</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J5" s="1">
         <v>0.84</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.92</v>
       </c>
-      <c r="J5" s="1">
+      <c r="N5" s="1">
         <v>0.83</v>
       </c>
-      <c r="K5" s="1">
+      <c r="O5" s="1">
         <v>0.25</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
+      <c r="P5">
+        <f t="shared" si="1"/>
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="M5" s="1">
+      <c r="Q5" s="1">
         <v>0.1</v>
       </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
+      <c r="R5">
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="O5" s="1">
+      <c r="S5" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="2"/>
+      <c r="T5">
+        <f t="shared" si="3"/>
         <v>2.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -697,43 +786,56 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.35</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J6" s="1">
         <v>0.84</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.92</v>
       </c>
-      <c r="J6" s="1">
+      <c r="N6" s="1">
         <v>0.8</v>
       </c>
-      <c r="K6" s="1">
+      <c r="O6" s="1">
         <v>0.42</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
+      <c r="P6">
+        <f t="shared" si="1"/>
         <v>-4.1999999999999997E-3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="Q6" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
+      <c r="R6">
+        <f t="shared" si="2"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="O6" s="1">
+      <c r="S6" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="2"/>
+      <c r="T6">
+        <f t="shared" si="3"/>
         <v>2.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -750,43 +852,56 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.35</v>
       </c>
-      <c r="G7" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J7" s="1">
         <v>0.83</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="M7" s="1">
         <v>0.92</v>
       </c>
-      <c r="J7" s="1">
+      <c r="N7" s="1">
         <v>0.79</v>
       </c>
-      <c r="K7" s="1">
+      <c r="O7" s="1">
         <v>0.35</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
+      <c r="P7">
+        <f t="shared" si="1"/>
         <v>-3.4999999999999996E-3</v>
       </c>
-      <c r="M7" s="1">
+      <c r="Q7" s="1">
         <v>0.22</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
+      <c r="R7">
+        <f t="shared" si="2"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="O7" s="1">
+      <c r="S7" s="1">
         <v>0.32</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
+      <c r="T7">
+        <f t="shared" si="3"/>
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -803,43 +918,56 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.35</v>
       </c>
-      <c r="G8" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J8" s="1">
         <v>0.83</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.92</v>
       </c>
-      <c r="J8" s="1">
+      <c r="N8" s="1">
         <v>0.8</v>
       </c>
-      <c r="K8" s="1">
+      <c r="O8" s="1">
         <v>0.16</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
+      <c r="P8">
+        <f t="shared" si="1"/>
         <v>-1.6000000000000001E-3</v>
       </c>
-      <c r="M8" s="1">
+      <c r="Q8" s="1">
         <v>0.37</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
+      <c r="R8">
+        <f t="shared" si="2"/>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="O8" s="1">
+      <c r="S8" s="1">
         <v>0.37</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="2"/>
+      <c r="T8">
+        <f t="shared" si="3"/>
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -856,43 +984,56 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.35</v>
       </c>
-      <c r="G9" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.83</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.92</v>
       </c>
-      <c r="J9" s="1">
+      <c r="N9" s="1">
         <v>0.81</v>
       </c>
-      <c r="K9" s="1">
+      <c r="O9" s="1">
         <v>0.32</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
+      <c r="P9">
+        <f t="shared" si="1"/>
         <v>-3.2000000000000002E-3</v>
       </c>
-      <c r="M9" s="1">
+      <c r="Q9" s="1">
         <v>0.64</v>
       </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
+      <c r="R9">
+        <f t="shared" si="2"/>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="O9" s="1">
+      <c r="S9" s="1">
         <v>0.76</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="2"/>
+      <c r="T9">
+        <f t="shared" si="3"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -909,43 +1050,56 @@
         <v>2</v>
       </c>
       <c r="F10" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.45</v>
       </c>
-      <c r="G10" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J10" s="1">
         <v>0.86</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="M10" s="1">
         <v>0.93</v>
       </c>
-      <c r="J10" s="1">
+      <c r="N10" s="1">
         <v>0.99</v>
       </c>
-      <c r="K10" s="1">
+      <c r="O10" s="1">
         <v>0.91</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
+      <c r="P10">
+        <f t="shared" si="1"/>
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="M10" s="1">
+      <c r="Q10" s="1">
         <v>0.1</v>
       </c>
-      <c r="N10">
-        <f t="shared" si="1"/>
+      <c r="R10">
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="O10" s="1">
+      <c r="S10" s="1">
         <v>0.33</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="2"/>
+      <c r="T10">
+        <f t="shared" si="3"/>
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -962,43 +1116,56 @@
         <v>2</v>
       </c>
       <c r="F11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.45</v>
       </c>
-      <c r="G11" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J11" s="1">
         <v>0.85</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M11" s="1">
         <v>0.93</v>
       </c>
-      <c r="J11" s="1">
+      <c r="N11" s="1">
         <v>0.97</v>
       </c>
-      <c r="K11" s="1">
+      <c r="O11" s="1">
         <v>0.51</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
+      <c r="P11">
+        <f t="shared" si="1"/>
         <v>-5.1000000000000004E-3</v>
       </c>
-      <c r="M11" s="1">
+      <c r="Q11" s="1">
         <v>0.08</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="1"/>
+      <c r="R11">
+        <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O11" s="1">
+      <c r="S11" s="1">
         <v>0.31</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
+      <c r="T11">
+        <f t="shared" si="3"/>
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1015,43 +1182,56 @@
         <v>2</v>
       </c>
       <c r="F12" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.45</v>
       </c>
-      <c r="G12" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J12" s="1">
         <v>0.85</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.93</v>
       </c>
-      <c r="J12" s="1">
+      <c r="N12" s="1">
         <v>0.94</v>
       </c>
-      <c r="K12" s="1">
+      <c r="O12" s="1">
         <v>0.64</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
+      <c r="P12">
+        <f t="shared" si="1"/>
         <v>-6.4000000000000003E-3</v>
       </c>
-      <c r="M12" s="1">
+      <c r="Q12" s="1">
         <v>0.08</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="1"/>
+      <c r="R12">
+        <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O12" s="1">
+      <c r="S12" s="1">
         <v>0.33</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="2"/>
+      <c r="T12">
+        <f t="shared" si="3"/>
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1068,43 +1248,56 @@
         <v>2</v>
       </c>
       <c r="F13" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H13" s="1">
         <v>0.45</v>
       </c>
-      <c r="G13" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J13" s="1">
         <v>0.84</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M13" s="1">
         <v>0.93</v>
       </c>
-      <c r="J13" s="1">
+      <c r="N13" s="1">
         <v>0.9</v>
       </c>
-      <c r="K13" s="1">
+      <c r="O13" s="1">
         <v>0.48</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
+      <c r="P13">
+        <f t="shared" si="1"/>
         <v>-4.7999999999999996E-3</v>
       </c>
-      <c r="M13" s="1">
+      <c r="Q13" s="1">
         <v>0.08</v>
       </c>
-      <c r="N13">
-        <f t="shared" si="1"/>
+      <c r="R13">
+        <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O13" s="1">
+      <c r="S13" s="1">
         <v>0.34</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="2"/>
+      <c r="T13">
+        <f t="shared" si="3"/>
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1121,43 +1314,56 @@
         <v>2</v>
       </c>
       <c r="F14" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H14" s="1">
         <v>0.45</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="O14" s="1">
         <v>0.54</v>
       </c>
-      <c r="H14" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
+      <c r="P14">
+        <f t="shared" si="1"/>
         <v>-5.4000000000000003E-3</v>
       </c>
-      <c r="M14" s="1">
+      <c r="Q14" s="1">
         <v>0.12</v>
       </c>
-      <c r="N14">
-        <f t="shared" si="1"/>
+      <c r="R14">
+        <f t="shared" si="2"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="O14" s="1">
+      <c r="S14" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="2"/>
+      <c r="T14">
+        <f t="shared" si="3"/>
         <v>2.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1174,43 +1380,56 @@
         <v>2</v>
       </c>
       <c r="F15" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H15" s="1">
         <v>0.45</v>
       </c>
-      <c r="G15" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.84</v>
-      </c>
       <c r="I15" s="1">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="J15" s="1">
         <v>0.84</v>
       </c>
       <c r="K15" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="O15" s="1">
         <v>0.22</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
+      <c r="P15">
+        <f t="shared" si="1"/>
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="M15" s="1">
+      <c r="Q15" s="1">
         <v>0.18</v>
       </c>
-      <c r="N15">
-        <f t="shared" si="1"/>
+      <c r="R15">
+        <f t="shared" si="2"/>
         <v>1.8E-3</v>
       </c>
-      <c r="O15" s="1">
+      <c r="S15" s="1">
         <v>0.35</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="2"/>
+      <c r="T15">
+        <f t="shared" si="3"/>
         <v>3.4999999999999996E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1227,43 +1446,56 @@
         <v>2</v>
       </c>
       <c r="F16" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H16" s="1">
         <v>0.45</v>
       </c>
-      <c r="G16" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.83</v>
-      </c>
       <c r="I16" s="1">
-        <v>0.92</v>
+        <v>0.62</v>
       </c>
       <c r="J16" s="1">
         <v>0.83</v>
       </c>
       <c r="K16" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="O16" s="1">
         <v>0.18</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
+      <c r="P16">
+        <f t="shared" si="1"/>
         <v>-1.8E-3</v>
       </c>
-      <c r="M16" s="1">
+      <c r="Q16" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N16">
-        <f t="shared" si="1"/>
+      <c r="R16">
+        <f t="shared" si="2"/>
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="O16" s="1">
+      <c r="S16" s="1">
         <v>0.34</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="2"/>
+      <c r="T16">
+        <f t="shared" si="3"/>
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1280,43 +1512,56 @@
         <v>2</v>
       </c>
       <c r="F17" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.46</v>
       </c>
-      <c r="G17" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="J17" s="1">
         <v>0.83</v>
       </c>
-      <c r="I17" s="1">
+      <c r="K17" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="M17" s="1">
         <v>0.92</v>
       </c>
-      <c r="J17" s="1">
+      <c r="N17" s="1">
         <v>0.81</v>
       </c>
-      <c r="K17" s="1">
+      <c r="O17" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
+      <c r="P17">
+        <f t="shared" si="1"/>
         <v>-2.8000000000000004E-3</v>
       </c>
-      <c r="M17" s="1">
+      <c r="Q17" s="1">
         <v>0.48</v>
       </c>
-      <c r="N17">
-        <f t="shared" si="1"/>
+      <c r="R17">
+        <f t="shared" si="2"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="O17" s="1">
+      <c r="S17" s="1">
         <v>1.39</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="2"/>
+      <c r="T17">
+        <f t="shared" si="3"/>
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1333,43 +1578,56 @@
         <v>3</v>
       </c>
       <c r="F18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H18" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G18" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J18" s="1">
         <v>0.86</v>
       </c>
-      <c r="I18" s="1">
+      <c r="K18" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="M18" s="1">
         <v>0.93</v>
       </c>
-      <c r="J18" s="1">
+      <c r="N18" s="1">
         <v>0.99</v>
       </c>
-      <c r="K18" s="1">
+      <c r="O18" s="1">
         <v>1.77</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
+      <c r="P18">
+        <f t="shared" si="1"/>
         <v>-1.77E-2</v>
       </c>
-      <c r="M18" s="1">
+      <c r="Q18" s="1">
         <v>0.11</v>
       </c>
-      <c r="N18">
-        <f t="shared" si="1"/>
+      <c r="R18">
+        <f t="shared" si="2"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="O18" s="1">
+      <c r="S18" s="1">
         <v>0.34</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="2"/>
+      <c r="T18">
+        <f t="shared" si="3"/>
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1386,43 +1644,56 @@
         <v>3</v>
       </c>
       <c r="F19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H19" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G19" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J19" s="1">
         <v>0.86</v>
       </c>
-      <c r="I19" s="1">
+      <c r="K19" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="M19" s="1">
         <v>0.93</v>
       </c>
-      <c r="J19" s="1">
+      <c r="N19" s="1">
         <v>0.97</v>
       </c>
-      <c r="K19" s="1">
+      <c r="O19" s="1">
         <v>1.63</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
+      <c r="P19">
+        <f t="shared" si="1"/>
         <v>-1.6299999999999999E-2</v>
       </c>
-      <c r="M19" s="1">
+      <c r="Q19" s="1">
         <v>0.08</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="1"/>
+      <c r="R19">
+        <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O19" s="1">
+      <c r="S19" s="1">
         <v>0.31</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="2"/>
+      <c r="T19">
+        <f t="shared" si="3"/>
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1439,43 +1710,56 @@
         <v>3</v>
       </c>
       <c r="F20" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G20" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J20" s="1">
         <v>0.85</v>
       </c>
-      <c r="I20" s="1">
+      <c r="K20" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M20" s="1">
         <v>0.93</v>
       </c>
-      <c r="J20" s="1">
+      <c r="N20" s="1">
         <v>0.95</v>
       </c>
-      <c r="K20" s="1">
+      <c r="O20" s="1">
         <v>1.55</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
+      <c r="P20">
+        <f t="shared" si="1"/>
         <v>-1.55E-2</v>
       </c>
-      <c r="M20" s="1">
+      <c r="Q20" s="1">
         <v>0.08</v>
       </c>
-      <c r="N20">
-        <f t="shared" si="1"/>
+      <c r="R20">
+        <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O20" s="1">
+      <c r="S20" s="1">
         <v>0.32</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="2"/>
+      <c r="T20">
+        <f t="shared" si="3"/>
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1492,43 +1776,56 @@
         <v>3</v>
       </c>
       <c r="F21" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H21" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G21" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J21" s="1">
         <v>0.85</v>
       </c>
-      <c r="I21" s="1">
+      <c r="K21" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M21" s="1">
         <v>0.93</v>
       </c>
-      <c r="J21" s="1">
+      <c r="N21" s="1">
         <v>0.92</v>
       </c>
-      <c r="K21" s="1">
+      <c r="O21" s="1">
         <v>1.44</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
+      <c r="P21">
+        <f t="shared" si="1"/>
         <v>-1.44E-2</v>
       </c>
-      <c r="M21" s="1">
+      <c r="Q21" s="1">
         <v>0.08</v>
       </c>
-      <c r="N21">
-        <f t="shared" si="1"/>
+      <c r="R21">
+        <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="O21" s="1">
+      <c r="S21" s="1">
         <v>0.31</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="2"/>
+      <c r="T21">
+        <f t="shared" si="3"/>
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1545,43 +1842,56 @@
         <v>3</v>
       </c>
       <c r="F22" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G22" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J22" s="1">
         <v>0.84</v>
       </c>
-      <c r="I22" s="1">
+      <c r="K22" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M22" s="1">
         <v>0.92</v>
       </c>
-      <c r="J22" s="1">
+      <c r="N22" s="1">
         <v>0.89</v>
       </c>
-      <c r="K22" s="1">
+      <c r="O22" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
+      <c r="P22">
+        <f t="shared" si="1"/>
         <v>-1.1399999999999999E-2</v>
       </c>
-      <c r="M22" s="1">
+      <c r="Q22" s="1">
         <v>0.11</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="1"/>
+      <c r="R22">
+        <f t="shared" si="2"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="O22" s="1">
+      <c r="S22" s="1">
         <v>0.36</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="2"/>
+      <c r="T22">
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1598,43 +1908,56 @@
         <v>3</v>
       </c>
       <c r="F23" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G23" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J23" s="1">
         <v>0.84</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.87</v>
       </c>
       <c r="K23" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
+      <c r="L23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
         <v>-1.1599999999999999E-2</v>
       </c>
-      <c r="M23" s="1">
+      <c r="Q23" s="1">
         <v>0.16</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="1"/>
+      <c r="R23">
+        <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O23" s="1">
+      <c r="S23" s="1">
         <v>0.3</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="2"/>
+      <c r="T23">
+        <f t="shared" si="3"/>
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1651,43 +1974,56 @@
         <v>3</v>
       </c>
       <c r="F24" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H24" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G24" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J24" s="1">
         <v>0.84</v>
       </c>
-      <c r="I24" s="1">
+      <c r="K24" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M24" s="1">
         <v>0.92</v>
       </c>
-      <c r="J24" s="1">
+      <c r="N24" s="1">
         <v>0.86</v>
       </c>
-      <c r="K24" s="1">
+      <c r="O24" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
+      <c r="P24">
+        <f t="shared" si="1"/>
         <v>-1.15E-2</v>
       </c>
-      <c r="M24" s="1">
+      <c r="Q24" s="1">
         <v>0.26</v>
       </c>
-      <c r="N24">
-        <f t="shared" si="1"/>
+      <c r="R24">
+        <f t="shared" si="2"/>
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="O24" s="1">
+      <c r="S24" s="1">
         <v>0.41</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="2"/>
+      <c r="T24">
+        <f t="shared" si="3"/>
         <v>4.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1704,43 +2040,56 @@
         <v>3</v>
       </c>
       <c r="F25" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H25" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I25" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N25" s="1">
         <v>0.85</v>
       </c>
-      <c r="H25" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="K25" s="1">
+      <c r="O25" s="1">
         <v>0.71</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
+      <c r="P25">
+        <f t="shared" si="1"/>
         <v>-7.0999999999999995E-3</v>
       </c>
-      <c r="M25" s="1">
+      <c r="Q25" s="1">
         <v>0.43</v>
       </c>
-      <c r="N25">
-        <f t="shared" si="1"/>
+      <c r="R25">
+        <f t="shared" si="2"/>
         <v>4.3E-3</v>
       </c>
-      <c r="O25" s="1">
+      <c r="S25" s="1">
         <v>0.49</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="2"/>
+      <c r="T25">
+        <f t="shared" si="3"/>
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1757,43 +2106,56 @@
         <v>4</v>
       </c>
       <c r="F26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H26" s="1">
         <v>0.67</v>
       </c>
-      <c r="G26" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J26" s="1">
         <v>0.87</v>
       </c>
-      <c r="I26" s="1">
+      <c r="K26" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="M26" s="1">
         <v>0.93</v>
       </c>
-      <c r="J26" s="1">
+      <c r="N26" s="1">
         <v>0.99</v>
       </c>
-      <c r="K26" s="1">
+      <c r="O26" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
+      <c r="P26">
+        <f t="shared" si="1"/>
         <v>-2.2799999999999997E-2</v>
       </c>
-      <c r="M26" s="1">
+      <c r="Q26" s="1">
         <v>0.17</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="1"/>
+      <c r="R26">
+        <f t="shared" si="2"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="O26" s="1">
+      <c r="S26" s="1">
         <v>0.44</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="2"/>
+      <c r="T26">
+        <f t="shared" si="3"/>
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1810,43 +2172,56 @@
         <v>4</v>
       </c>
       <c r="F27" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.69</v>
       </c>
-      <c r="G27" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J27" s="1">
         <v>0.86</v>
       </c>
-      <c r="I27" s="1">
+      <c r="K27" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="M27" s="1">
         <v>0.93</v>
       </c>
-      <c r="J27" s="1">
+      <c r="N27" s="1">
         <v>0.97</v>
       </c>
-      <c r="K27" s="1">
+      <c r="O27" s="1">
         <v>2.17</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
+      <c r="P27">
+        <f t="shared" si="1"/>
         <v>-2.1700000000000001E-2</v>
       </c>
-      <c r="M27" s="1">
+      <c r="Q27" s="1">
         <v>0.09</v>
       </c>
-      <c r="N27">
-        <f t="shared" si="1"/>
+      <c r="R27">
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="O27" s="1">
+      <c r="S27" s="1">
         <v>0.37</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="2"/>
+      <c r="T27">
+        <f t="shared" si="3"/>
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1863,43 +2238,56 @@
         <v>4</v>
       </c>
       <c r="F28" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H28" s="1">
         <v>0.69</v>
       </c>
-      <c r="G28" s="1">
+      <c r="I28" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>-2.1299999999999999E-2</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="S28" s="1">
         <v>0.36</v>
       </c>
-      <c r="H28" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="K28" s="1">
-        <v>2.13</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>-2.1299999999999999E-2</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="O28" s="1">
-        <v>0.36</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="2"/>
+      <c r="T28">
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1916,43 +2304,56 @@
         <v>4</v>
       </c>
       <c r="F29" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H29" s="1">
         <v>0.7</v>
       </c>
-      <c r="G29" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J29" s="1">
         <v>0.85</v>
       </c>
-      <c r="I29" s="1">
+      <c r="K29" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M29" s="1">
         <v>0.93</v>
       </c>
-      <c r="J29" s="1">
+      <c r="N29" s="1">
         <v>0.93</v>
       </c>
-      <c r="K29" s="1">
+      <c r="O29" s="1">
         <v>2.09</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
+      <c r="P29">
+        <f t="shared" si="1"/>
         <v>-2.0899999999999998E-2</v>
       </c>
-      <c r="M29" s="1">
+      <c r="Q29" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
+      <c r="R29">
+        <f t="shared" si="2"/>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="O29" s="1">
+      <c r="S29" s="1">
         <v>0.36</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="2"/>
+      <c r="T29">
+        <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1969,43 +2370,56 @@
         <v>4</v>
       </c>
       <c r="F30" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H30" s="1">
         <v>0.7</v>
       </c>
-      <c r="G30" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J30" s="1">
         <v>0.85</v>
       </c>
-      <c r="I30" s="1">
+      <c r="K30" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M30" s="1">
         <v>0.92</v>
       </c>
-      <c r="J30" s="1">
+      <c r="N30" s="1">
         <v>0.9</v>
       </c>
-      <c r="K30" s="1">
+      <c r="O30" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
+      <c r="P30">
+        <f t="shared" si="1"/>
         <v>-2.2000000000000002E-2</v>
       </c>
-      <c r="M30" s="1">
+      <c r="Q30" s="1">
         <v>0.1</v>
       </c>
-      <c r="N30">
-        <f t="shared" si="1"/>
+      <c r="R30">
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="O30" s="1">
+      <c r="S30" s="1">
         <v>0.38</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="2"/>
+      <c r="T30">
+        <f t="shared" si="3"/>
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2022,43 +2436,56 @@
         <v>4</v>
       </c>
       <c r="F31" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H31" s="1">
         <v>0.7</v>
       </c>
-      <c r="G31" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J31" s="1">
         <v>0.85</v>
       </c>
-      <c r="I31" s="1">
+      <c r="K31" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M31" s="1">
         <v>0.92</v>
       </c>
-      <c r="J31" s="1">
+      <c r="N31" s="1">
         <v>0.88</v>
       </c>
-      <c r="K31" s="1">
+      <c r="O31" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
+      <c r="P31">
+        <f t="shared" si="1"/>
         <v>-2.4300000000000002E-2</v>
       </c>
-      <c r="M31" s="1">
+      <c r="Q31" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N31">
-        <f t="shared" si="1"/>
+      <c r="R31">
+        <f t="shared" si="2"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="O31" s="1">
+      <c r="S31" s="1">
         <v>0.4</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="2"/>
+      <c r="T31">
+        <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2075,43 +2502,56 @@
         <v>4</v>
       </c>
       <c r="F32" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H32" s="1">
         <v>0.7</v>
       </c>
-      <c r="G32" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J32" s="1">
         <v>0.84</v>
       </c>
-      <c r="I32" s="1">
+      <c r="K32" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M32" s="1">
         <v>0.92</v>
       </c>
-      <c r="J32" s="1">
+      <c r="N32" s="1">
         <v>0.87</v>
       </c>
-      <c r="K32" s="1">
+      <c r="O32" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
+      <c r="P32">
+        <f t="shared" si="1"/>
         <v>-2.4300000000000002E-2</v>
       </c>
-      <c r="M32" s="1">
+      <c r="Q32" s="1">
         <v>0.21</v>
       </c>
-      <c r="N32">
-        <f t="shared" si="1"/>
+      <c r="R32">
+        <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="O32" s="1">
+      <c r="S32" s="1">
         <v>0.41</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="2"/>
+      <c r="T32">
+        <f t="shared" si="3"/>
         <v>4.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2128,43 +2568,56 @@
         <v>4</v>
       </c>
       <c r="F33" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H33" s="1">
         <v>0.71</v>
       </c>
-      <c r="G33" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="J33" s="1">
         <v>0.83</v>
       </c>
-      <c r="I33" s="1">
+      <c r="K33" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="M33" s="1">
         <v>0.92</v>
       </c>
-      <c r="J33" s="1">
+      <c r="N33" s="1">
         <v>0.85</v>
       </c>
-      <c r="K33" s="1">
+      <c r="O33" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
+      <c r="P33">
+        <f t="shared" si="1"/>
         <v>-2.4900000000000002E-2</v>
       </c>
-      <c r="M33" s="1">
+      <c r="Q33" s="1">
         <v>0.31</v>
       </c>
-      <c r="N33">
-        <f t="shared" si="1"/>
+      <c r="R33">
+        <f t="shared" si="2"/>
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="O33" s="1">
+      <c r="S33" s="1">
         <v>0.5</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="2"/>
+      <c r="T33">
+        <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -2181,43 +2634,56 @@
         <v>5</v>
       </c>
       <c r="F34" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H34" s="1">
         <v>0.79</v>
       </c>
-      <c r="G34" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J34" s="1">
         <v>0.87</v>
       </c>
-      <c r="I34" s="1">
+      <c r="K34" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="M34" s="1">
         <v>0.93</v>
       </c>
-      <c r="J34" s="1">
+      <c r="N34" s="1">
         <v>0.99</v>
       </c>
-      <c r="K34" s="1">
+      <c r="O34" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
+      <c r="P34">
+        <f t="shared" si="1"/>
         <v>-1.11E-2</v>
       </c>
-      <c r="M34" s="1">
+      <c r="Q34" s="1">
         <v>0.77</v>
       </c>
-      <c r="N34">
-        <f t="shared" si="1"/>
+      <c r="R34">
+        <f t="shared" si="2"/>
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="O34" s="1">
+      <c r="S34" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="2"/>
+      <c r="T34">
+        <f t="shared" si="3"/>
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2234,43 +2700,56 @@
         <v>5</v>
       </c>
       <c r="F35" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H35" s="1">
         <v>0.82</v>
       </c>
-      <c r="G35" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J35" s="1">
         <v>0.87</v>
       </c>
-      <c r="I35" s="1">
+      <c r="K35" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="M35" s="1">
         <v>0.93</v>
       </c>
-      <c r="J35" s="1">
+      <c r="N35" s="1">
         <v>0.97</v>
       </c>
-      <c r="K35" s="1">
+      <c r="O35" s="1">
         <v>2.56</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
+      <c r="P35">
+        <f t="shared" si="1"/>
         <v>-2.5600000000000001E-2</v>
       </c>
-      <c r="M35" s="1">
+      <c r="Q35" s="1">
         <v>0.18</v>
       </c>
-      <c r="N35">
-        <f t="shared" si="1"/>
+      <c r="R35">
+        <f t="shared" si="2"/>
         <v>1.8E-3</v>
       </c>
-      <c r="O35" s="1">
+      <c r="S35" s="1">
         <v>0.64</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="2"/>
+      <c r="T35">
+        <f t="shared" si="3"/>
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2287,43 +2766,56 @@
         <v>5</v>
       </c>
       <c r="F36" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H36" s="1">
         <v>0.82</v>
       </c>
-      <c r="G36" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J36" s="1">
         <v>0.86</v>
       </c>
-      <c r="I36" s="1">
+      <c r="K36" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="M36" s="1">
         <v>0.93</v>
       </c>
-      <c r="J36" s="1">
+      <c r="N36" s="1">
         <v>0.96</v>
       </c>
-      <c r="K36" s="1">
+      <c r="O36" s="1">
         <v>2.72</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
+      <c r="P36">
+        <f t="shared" si="1"/>
         <v>-2.7200000000000002E-2</v>
       </c>
-      <c r="M36" s="1">
+      <c r="Q36" s="1">
         <v>0.11</v>
       </c>
-      <c r="N36">
-        <f t="shared" si="1"/>
+      <c r="R36">
+        <f t="shared" si="2"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="O36" s="1">
+      <c r="S36" s="1">
         <v>0.4</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="2"/>
+      <c r="T36">
+        <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2340,43 +2832,56 @@
         <v>5</v>
       </c>
       <c r="F37" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H37" s="1">
         <v>0.85</v>
       </c>
-      <c r="G37" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J37" s="1">
         <v>0.86</v>
       </c>
-      <c r="I37" s="1">
+      <c r="K37" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="M37" s="1">
         <v>0.92</v>
       </c>
-      <c r="J37" s="1">
+      <c r="N37" s="1">
         <v>0.94</v>
       </c>
-      <c r="K37" s="1">
+      <c r="O37" s="1">
         <v>3.26</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
+      <c r="P37">
+        <f t="shared" si="1"/>
         <v>-3.2599999999999997E-2</v>
       </c>
-      <c r="M37" s="1">
+      <c r="Q37" s="1">
         <v>0.09</v>
       </c>
-      <c r="N37">
-        <f t="shared" si="1"/>
+      <c r="R37">
+        <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="O37" s="1">
+      <c r="S37" s="1">
         <v>0.44</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="2"/>
+      <c r="T37">
+        <f t="shared" si="3"/>
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2393,43 +2898,56 @@
         <v>5</v>
       </c>
       <c r="F38" s="1">
-        <v>0.85</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G38" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="H38" s="1">
         <v>0.85</v>
       </c>
       <c r="I38" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M38" s="1">
         <v>0.92</v>
       </c>
-      <c r="J38" s="1">
+      <c r="N38" s="1">
         <v>0.91</v>
       </c>
-      <c r="K38" s="1">
+      <c r="O38" s="1">
         <v>3.82</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
+      <c r="P38">
+        <f t="shared" si="1"/>
         <v>-3.8199999999999998E-2</v>
       </c>
-      <c r="M38" s="1">
+      <c r="Q38" s="1">
         <v>0.11</v>
       </c>
-      <c r="N38">
-        <f t="shared" si="1"/>
+      <c r="R38">
+        <f t="shared" si="2"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="O38" s="1">
+      <c r="S38" s="1">
         <v>0.51</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="2"/>
+      <c r="T38">
+        <f t="shared" si="3"/>
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2446,43 +2964,56 @@
         <v>5</v>
       </c>
       <c r="F39" s="1">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="G39" s="1">
-        <v>0.64</v>
+        <v>0.44</v>
       </c>
       <c r="H39" s="1">
         <v>0.85</v>
       </c>
       <c r="I39" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M39" s="1">
         <v>0.92</v>
       </c>
-      <c r="J39" s="1">
+      <c r="N39" s="1">
         <v>0.89</v>
       </c>
-      <c r="K39" s="1">
+      <c r="O39" s="1">
         <v>4.5599999999999996</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
+      <c r="P39">
+        <f t="shared" si="1"/>
         <v>-4.5599999999999995E-2</v>
       </c>
-      <c r="M39" s="1">
+      <c r="Q39" s="1">
         <v>0.15</v>
       </c>
-      <c r="N39">
-        <f t="shared" si="1"/>
+      <c r="R39">
+        <f t="shared" si="2"/>
         <v>1.5E-3</v>
       </c>
-      <c r="O39" s="1">
+      <c r="S39" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="2"/>
+      <c r="T39">
+        <f t="shared" si="3"/>
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2499,43 +3030,56 @@
         <v>5</v>
       </c>
       <c r="F40" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H40" s="1">
         <v>0.85</v>
       </c>
-      <c r="G40" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J40" s="1">
         <v>0.84</v>
       </c>
-      <c r="I40" s="1">
+      <c r="K40" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M40" s="1">
         <v>0.92</v>
       </c>
-      <c r="J40" s="1">
+      <c r="N40" s="1">
         <v>0.87</v>
       </c>
-      <c r="K40" s="1">
+      <c r="O40" s="1">
         <v>5.71</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
+      <c r="P40">
+        <f t="shared" si="1"/>
         <v>-5.7099999999999998E-2</v>
       </c>
-      <c r="M40" s="1">
+      <c r="Q40" s="1">
         <v>0.22</v>
       </c>
-      <c r="N40">
-        <f t="shared" si="1"/>
+      <c r="R40">
+        <f t="shared" si="2"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="O40" s="1">
+      <c r="S40" s="1">
         <v>0.69</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="2"/>
+      <c r="T40">
+        <f t="shared" si="3"/>
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2552,43 +3096,56 @@
         <v>5</v>
       </c>
       <c r="F41" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H41" s="1">
         <v>0.85</v>
       </c>
-      <c r="G41" s="1">
+      <c r="I41" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N41" s="1">
         <v>0.86</v>
       </c>
-      <c r="H41" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="K41" s="1">
+      <c r="O41" s="1">
         <v>6.96</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
+      <c r="P41">
+        <f t="shared" si="1"/>
         <v>-6.9599999999999995E-2</v>
       </c>
-      <c r="M41" s="1">
+      <c r="Q41" s="1">
         <v>0.31</v>
       </c>
-      <c r="N41">
-        <f t="shared" si="1"/>
+      <c r="R41">
+        <f t="shared" si="2"/>
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="O41" s="1">
+      <c r="S41" s="1">
         <v>0.81</v>
       </c>
-      <c r="P41">
-        <f t="shared" si="2"/>
+      <c r="T41">
+        <f t="shared" si="3"/>
         <v>8.1000000000000013E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2605,43 +3162,56 @@
         <v>6</v>
       </c>
       <c r="F42" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H42" s="1">
         <v>0.93</v>
       </c>
-      <c r="G42" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J42" s="1">
         <v>0.87</v>
       </c>
-      <c r="I42" s="1">
+      <c r="K42" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="M42" s="1">
         <v>0.93</v>
       </c>
-      <c r="J42" s="1">
+      <c r="N42" s="1">
         <v>0.98</v>
       </c>
-      <c r="K42" s="1">
+      <c r="O42" s="1">
         <v>3.34</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
+      <c r="P42">
+        <f t="shared" si="1"/>
         <v>-3.3399999999999999E-2</v>
       </c>
-      <c r="M42" s="1">
+      <c r="Q42" s="1">
         <v>0.6</v>
       </c>
-      <c r="N42">
-        <f t="shared" si="1"/>
+      <c r="R42">
+        <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="O42" s="1">
+      <c r="S42" s="1">
         <v>0.81</v>
       </c>
-      <c r="P42">
-        <f t="shared" si="2"/>
+      <c r="T42">
+        <f t="shared" si="3"/>
         <v>8.1000000000000013E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2658,43 +3228,56 @@
         <v>6</v>
       </c>
       <c r="F43" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H43" s="1">
         <v>0.96</v>
       </c>
-      <c r="G43" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J43" s="1">
         <v>0.87</v>
       </c>
-      <c r="I43" s="1">
+      <c r="K43" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="M43" s="1">
         <v>0.93</v>
       </c>
-      <c r="J43" s="1">
+      <c r="N43" s="1">
         <v>0.97</v>
       </c>
-      <c r="K43" s="1">
+      <c r="O43" s="1">
         <v>3.21</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
+      <c r="P43">
+        <f t="shared" si="1"/>
         <v>-3.2099999999999997E-2</v>
       </c>
-      <c r="M43" s="1">
+      <c r="Q43" s="1">
         <v>0.19</v>
       </c>
-      <c r="N43">
-        <f t="shared" si="1"/>
+      <c r="R43">
+        <f t="shared" si="2"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O43" s="1">
+      <c r="S43" s="1">
         <v>0.42</v>
       </c>
-      <c r="P43">
-        <f t="shared" si="2"/>
+      <c r="T43">
+        <f t="shared" si="3"/>
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2711,43 +3294,56 @@
         <v>6</v>
       </c>
       <c r="F44" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H44" s="1">
         <v>0.98</v>
       </c>
-      <c r="G44" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J44" s="1">
         <v>0.86</v>
       </c>
-      <c r="I44" s="1">
+      <c r="K44" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="M44" s="1">
         <v>0.93</v>
       </c>
-      <c r="J44" s="1">
+      <c r="N44" s="1">
         <v>0.95</v>
       </c>
-      <c r="K44" s="1">
+      <c r="O44" s="1">
         <v>3.33</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
+      <c r="P44">
+        <f t="shared" si="1"/>
         <v>-3.3300000000000003E-2</v>
       </c>
-      <c r="M44" s="1">
+      <c r="Q44" s="1">
         <v>0.12</v>
       </c>
-      <c r="N44">
-        <f t="shared" si="1"/>
+      <c r="R44">
+        <f t="shared" si="2"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="O44" s="1">
+      <c r="S44" s="1">
         <v>0.47</v>
       </c>
-      <c r="P44">
-        <f t="shared" si="2"/>
+      <c r="T44">
+        <f t="shared" si="3"/>
         <v>4.6999999999999993E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2764,43 +3360,56 @@
         <v>6</v>
       </c>
       <c r="F45" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H45" s="1">
         <v>0.99</v>
       </c>
-      <c r="G45" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J45" s="1">
         <v>0.86</v>
       </c>
-      <c r="I45" s="1">
+      <c r="K45" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="M45" s="1">
         <v>0.92</v>
       </c>
-      <c r="J45" s="1">
+      <c r="N45" s="1">
         <v>0.92</v>
       </c>
-      <c r="K45" s="1">
+      <c r="O45" s="1">
         <v>4.09</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
+      <c r="P45">
+        <f t="shared" si="1"/>
         <v>-4.0899999999999999E-2</v>
       </c>
-      <c r="M45" s="1">
+      <c r="Q45" s="1">
         <v>0.12</v>
       </c>
-      <c r="N45">
-        <f t="shared" si="1"/>
+      <c r="R45">
+        <f t="shared" si="2"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="O45" s="1">
+      <c r="S45" s="1">
         <v>0.51</v>
       </c>
-      <c r="P45">
-        <f t="shared" si="2"/>
+      <c r="T45">
+        <f t="shared" si="3"/>
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2817,43 +3426,56 @@
         <v>6</v>
       </c>
       <c r="F46" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H46" s="1">
         <v>0.99</v>
       </c>
-      <c r="G46" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J46" s="1">
         <v>0.85</v>
       </c>
-      <c r="I46" s="1">
+      <c r="K46" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M46" s="1">
         <v>0.92</v>
       </c>
-      <c r="J46" s="1">
+      <c r="N46" s="1">
         <v>0.9</v>
       </c>
-      <c r="K46" s="1">
+      <c r="O46" s="1">
         <v>4.33</v>
       </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
+      <c r="P46">
+        <f t="shared" si="1"/>
         <v>-4.3299999999999998E-2</v>
       </c>
-      <c r="M46" s="1">
+      <c r="Q46" s="1">
         <v>0.15</v>
       </c>
-      <c r="N46">
-        <f t="shared" si="1"/>
+      <c r="R46">
+        <f t="shared" si="2"/>
         <v>1.5E-3</v>
       </c>
-      <c r="O46" s="1">
+      <c r="S46" s="1">
         <v>0.54</v>
       </c>
-      <c r="P46">
-        <f t="shared" si="2"/>
+      <c r="T46">
+        <f t="shared" si="3"/>
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2870,43 +3492,56 @@
         <v>6</v>
       </c>
       <c r="F47" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H47" s="1">
         <v>0.99</v>
       </c>
-      <c r="G47" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J47" s="1">
         <v>0.85</v>
       </c>
-      <c r="I47" s="1">
+      <c r="K47" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M47" s="1">
         <v>0.92</v>
       </c>
-      <c r="J47" s="1">
+      <c r="N47" s="1">
         <v>0.88</v>
       </c>
-      <c r="K47" s="1">
+      <c r="O47" s="1">
         <v>4.66</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
+      <c r="P47">
+        <f t="shared" si="1"/>
         <v>-4.6600000000000003E-2</v>
       </c>
-      <c r="M47" s="1">
+      <c r="Q47" s="1">
         <v>0.22</v>
       </c>
-      <c r="N47">
-        <f t="shared" si="1"/>
+      <c r="R47">
+        <f t="shared" si="2"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="O47" s="1">
+      <c r="S47" s="1">
         <v>0.6</v>
       </c>
-      <c r="P47">
-        <f t="shared" si="2"/>
+      <c r="T47">
+        <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2923,43 +3558,56 @@
         <v>6</v>
       </c>
       <c r="F48" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H48" s="1">
         <v>0.99</v>
       </c>
-      <c r="G48" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="J48" s="1">
         <v>0.84</v>
       </c>
-      <c r="I48" s="1">
+      <c r="K48" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="M48" s="1">
         <v>0.92</v>
       </c>
-      <c r="J48" s="1">
+      <c r="N48" s="1">
         <v>0.86</v>
       </c>
-      <c r="K48" s="1">
+      <c r="O48" s="1">
         <v>6.3</v>
       </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
+      <c r="P48">
+        <f t="shared" si="1"/>
         <v>-6.3E-2</v>
       </c>
-      <c r="M48" s="1">
+      <c r="Q48" s="1">
         <v>0.33</v>
       </c>
-      <c r="N48">
-        <f t="shared" si="1"/>
+      <c r="R48">
+        <f t="shared" si="2"/>
         <v>3.3E-3</v>
       </c>
-      <c r="O48" s="1">
+      <c r="S48" s="1">
         <v>0.73</v>
       </c>
-      <c r="P48">
-        <f t="shared" si="2"/>
+      <c r="T48">
+        <f t="shared" si="3"/>
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2976,43 +3624,56 @@
         <v>7</v>
       </c>
       <c r="F49" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H49" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="G49" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="J49" s="1">
         <v>0.87</v>
       </c>
-      <c r="I49" s="1">
+      <c r="K49" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="M49" s="1">
         <v>0.92</v>
       </c>
-      <c r="J49" s="1">
+      <c r="N49" s="1">
         <v>0.98</v>
       </c>
-      <c r="K49" s="1">
+      <c r="O49" s="1">
         <v>3.2</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
+      <c r="P49">
+        <f t="shared" si="1"/>
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="M49" s="1">
+      <c r="Q49" s="1">
         <v>0.96</v>
       </c>
-      <c r="N49">
-        <f t="shared" si="1"/>
+      <c r="R49">
+        <f t="shared" si="2"/>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="O49" s="1">
+      <c r="S49" s="1">
         <v>0.83</v>
       </c>
-      <c r="P49">
-        <f t="shared" si="2"/>
+      <c r="T49">
+        <f t="shared" si="3"/>
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -3029,43 +3690,56 @@
         <v>7</v>
       </c>
       <c r="F50" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H50" s="1">
         <v>1.19</v>
       </c>
-      <c r="G50" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J50" s="1">
         <v>0.87</v>
       </c>
-      <c r="I50" s="1">
+      <c r="K50" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="M50" s="1">
         <v>0.93</v>
       </c>
-      <c r="J50" s="1">
+      <c r="N50" s="1">
         <v>0.97</v>
       </c>
-      <c r="K50" s="1">
+      <c r="O50" s="1">
         <v>2.63</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
+      <c r="P50">
+        <f t="shared" si="1"/>
         <v>-2.63E-2</v>
       </c>
-      <c r="M50" s="1">
+      <c r="Q50" s="1">
         <v>0.23</v>
       </c>
-      <c r="N50">
-        <f t="shared" si="1"/>
+      <c r="R50">
+        <f t="shared" si="2"/>
         <v>2.3E-3</v>
       </c>
-      <c r="O50" s="1">
+      <c r="S50" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P50">
-        <f t="shared" si="2"/>
+      <c r="T50">
+        <f t="shared" si="3"/>
         <v>5.5000000000000005E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -3082,43 +3756,56 @@
         <v>7</v>
       </c>
       <c r="F51" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H51" s="1">
         <v>1.23</v>
       </c>
-      <c r="G51" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J51" s="1">
         <v>0.87</v>
       </c>
-      <c r="I51" s="1">
+      <c r="K51" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="M51" s="1">
         <v>0.93</v>
       </c>
-      <c r="J51" s="1">
+      <c r="N51" s="1">
         <v>0.95</v>
       </c>
-      <c r="K51" s="1">
+      <c r="O51" s="1">
         <v>2.82</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
+      <c r="P51">
+        <f t="shared" si="1"/>
         <v>-2.8199999999999999E-2</v>
       </c>
-      <c r="M51" s="1">
+      <c r="Q51" s="1">
         <v>0.16</v>
       </c>
-      <c r="N51">
-        <f t="shared" si="1"/>
+      <c r="R51">
+        <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="O51" s="1">
+      <c r="S51" s="1">
         <v>0.53</v>
       </c>
-      <c r="P51">
-        <f t="shared" si="2"/>
+      <c r="T51">
+        <f t="shared" si="3"/>
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -3135,43 +3822,56 @@
         <v>7</v>
       </c>
       <c r="F52" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H52" s="1">
         <v>1.25</v>
       </c>
-      <c r="G52" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J52" s="1">
         <v>0.86</v>
       </c>
-      <c r="I52" s="1">
+      <c r="K52" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="M52" s="1">
         <v>0.92</v>
       </c>
-      <c r="J52" s="1">
+      <c r="N52" s="1">
         <v>0.93</v>
       </c>
-      <c r="K52" s="1">
+      <c r="O52" s="1">
         <v>3.43</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
+      <c r="P52">
+        <f t="shared" si="1"/>
         <v>-3.4300000000000004E-2</v>
       </c>
-      <c r="M52" s="1">
+      <c r="Q52" s="1">
         <v>0.17</v>
       </c>
-      <c r="N52">
-        <f t="shared" si="1"/>
+      <c r="R52">
+        <f t="shared" si="2"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="O52" s="1">
+      <c r="S52" s="1">
         <v>0.53</v>
       </c>
-      <c r="P52">
-        <f t="shared" si="2"/>
+      <c r="T52">
+        <f t="shared" si="3"/>
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -3188,43 +3888,56 @@
         <v>7</v>
       </c>
       <c r="F53" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H53" s="1">
         <v>1.27</v>
       </c>
-      <c r="G53" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J53" s="1">
         <v>0.86</v>
       </c>
-      <c r="I53" s="1">
+      <c r="K53" s="1">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="M53" s="1">
         <v>0.92</v>
       </c>
-      <c r="J53" s="1">
+      <c r="N53" s="1">
         <v>0.91</v>
       </c>
-      <c r="K53" s="1">
+      <c r="O53" s="1">
         <v>5.18</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
+      <c r="P53">
+        <f t="shared" si="1"/>
         <v>-5.1799999999999999E-2</v>
       </c>
-      <c r="M53" s="1">
+      <c r="Q53" s="1">
         <v>0.21</v>
       </c>
-      <c r="N53">
-        <f t="shared" si="1"/>
+      <c r="R53">
+        <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="O53" s="1">
+      <c r="S53" s="1">
         <v>0.65</v>
       </c>
-      <c r="P53">
-        <f t="shared" si="2"/>
+      <c r="T53">
+        <f t="shared" si="3"/>
         <v>6.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -3241,304 +3954,382 @@
         <v>7</v>
       </c>
       <c r="F54" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H54" s="1">
         <v>1.28</v>
       </c>
-      <c r="G54" s="1">
+      <c r="I54" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="O54" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="1"/>
+        <v>-8.1900000000000001E-2</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="S54" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="3"/>
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>10.58</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12999999999999989</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="O55" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="1"/>
+        <v>-4.5100000000000001E-2</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="S55" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="3"/>
+        <v>2.53E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>10.58</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1">
+        <v>8</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="O56" s="1">
+        <v>3.64</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="1"/>
+        <v>-3.6400000000000002E-2</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="S56" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="3"/>
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>10.58</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.69</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="O57" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="1"/>
+        <v>-3.7400000000000003E-2</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R57">
+        <f t="shared" ref="R57:R59" si="4">Q57/100</f>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="T57">
+        <f t="shared" ref="T57:T59" si="5">S57/100</f>
+        <v>9.0000000000000011E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>10.58</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1">
+        <v>8</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.71</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="O58" s="1">
+        <v>4.07</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="1"/>
+        <v>-4.07E-2</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="4"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="S58" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="5"/>
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>10.58</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1">
         <v>0.86</v>
       </c>
-      <c r="H54" s="1">
+      <c r="G59" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="J59" s="1">
         <v>0.85</v>
       </c>
-      <c r="I54" s="1">
+      <c r="K59" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M59" s="1">
         <v>0.92</v>
       </c>
-      <c r="J54" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="K54" s="1">
-        <v>8.19</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>-8.1900000000000001E-2</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="1"/>
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="O54" s="1">
-        <v>1.08</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="2"/>
-        <v>1.0800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55">
-        <v>10.58</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="1">
-        <v>8</v>
-      </c>
-      <c r="F55" s="1">
-        <v>1.52</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0.99</v>
-      </c>
-      <c r="K55" s="1">
-        <v>4.51</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>-4.5100000000000001E-2</v>
-      </c>
-      <c r="M55" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="1"/>
-        <v>1.7000000000000001E-3</v>
-      </c>
-      <c r="O55" s="1">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="2"/>
-        <v>2.53E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56">
-        <v>10.58</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="1">
-        <v>8</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1.67</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H56" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="K56" s="1">
-        <v>3.64</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="0"/>
-        <v>-3.6400000000000002E-2</v>
-      </c>
-      <c r="M56" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="1"/>
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="O56" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="2"/>
-        <v>1.29E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57">
-        <v>10.58</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="1">
-        <v>8</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1.69</v>
-      </c>
-      <c r="G57" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="H57" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="K57" s="1">
-        <v>3.74</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="0"/>
-        <v>-3.7400000000000003E-2</v>
-      </c>
-      <c r="M57" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N57">
-        <f t="shared" ref="N57:N59" si="3">M57/100</f>
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="O57" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P57">
-        <f t="shared" ref="P57:P59" si="4">O57/100</f>
-        <v>9.0000000000000011E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58">
-        <v>10.58</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="1">
-        <v>8</v>
-      </c>
-      <c r="F58" s="1">
-        <v>1.71</v>
-      </c>
-      <c r="G58" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="H58" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="J58" s="1">
+      <c r="N59" s="1">
         <v>0.82</v>
       </c>
-      <c r="K58" s="1">
-        <v>4.07</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="0"/>
-        <v>-4.07E-2</v>
-      </c>
-      <c r="M58" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="3"/>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="O58" s="1">
-        <v>1.06</v>
-      </c>
-      <c r="P58">
+      <c r="O59" s="1">
+        <v>6.41</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="1"/>
+        <v>-6.4100000000000004E-2</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R59">
         <f t="shared" si="4"/>
-        <v>1.06E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59">
-        <v>10.58</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="1">
-        <v>8</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1.74</v>
-      </c>
-      <c r="G59" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="H59" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="I59" s="1">
-        <v>0.92</v>
-      </c>
-      <c r="J59" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="K59" s="1">
-        <v>6.41</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="0"/>
-        <v>-6.4100000000000004E-2</v>
-      </c>
-      <c r="M59" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="3"/>
         <v>1.9E-3</v>
       </c>
-      <c r="O59" s="1">
+      <c r="S59" s="1">
         <v>1.8</v>
       </c>
-      <c r="P59">
-        <f t="shared" si="4"/>
+      <c r="T59">
+        <f t="shared" si="5"/>
         <v>1.8000000000000002E-2</v>
       </c>
     </row>

--- a/dihadron/expdata/2000.xlsx
+++ b/dihadron/expdata/2000.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DAFCFC2-11AD-7944-AE0C-637B29D035A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75216380-5DE3-764F-AAF6-86549ED9E7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,12 +64,6 @@
     <t>sin2theta</t>
   </si>
   <si>
-    <t>dihadron</t>
-  </si>
-  <si>
-    <t>pion</t>
-  </si>
-  <si>
     <t>BELLE</t>
   </si>
   <si>
@@ -98,6 +92,12 @@
   </si>
   <si>
     <t>m2</t>
+  </si>
+  <si>
+    <t>hadrons</t>
+  </si>
+  <si>
+    <t>2(pi+,pi-)</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -463,43 +463,43 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>7</v>
@@ -507,10 +507,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>10.58</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>10.58</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>10.58</v>
@@ -705,10 +705,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>10.58</v>
@@ -771,10 +771,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>10.58</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>10.58</v>
@@ -903,10 +903,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>10.58</v>
@@ -969,10 +969,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>10.58</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>10.58</v>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>10.58</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>10.58</v>
@@ -1233,10 +1233,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>10.58</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>10.58</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>10.58</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>10.58</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>10.58</v>
@@ -1563,10 +1563,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>10.58</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>10.58</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>10.58</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>10.58</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>10.58</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>10.58</v>
@@ -1959,10 +1959,10 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>10.58</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>10.58</v>
@@ -2091,10 +2091,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>10.58</v>
@@ -2157,10 +2157,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <v>10.58</v>
@@ -2223,10 +2223,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>10.58</v>
@@ -2289,10 +2289,10 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C29">
         <v>10.58</v>
@@ -2355,10 +2355,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>10.58</v>
@@ -2421,10 +2421,10 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C31">
         <v>10.58</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>10.58</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>10.58</v>
@@ -2619,10 +2619,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>10.58</v>
@@ -2685,10 +2685,10 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>10.58</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>10.58</v>
@@ -2817,10 +2817,10 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C37">
         <v>10.58</v>
@@ -2883,10 +2883,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>10.58</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>10.58</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C40">
         <v>10.58</v>
@@ -3081,10 +3081,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C41">
         <v>10.58</v>
@@ -3147,10 +3147,10 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C42">
         <v>10.58</v>
@@ -3213,10 +3213,10 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C43">
         <v>10.58</v>
@@ -3279,10 +3279,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>10.58</v>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>10.58</v>
@@ -3411,10 +3411,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>10.58</v>
@@ -3477,10 +3477,10 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>10.58</v>
@@ -3543,10 +3543,10 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>10.58</v>
@@ -3609,10 +3609,10 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>10.58</v>
@@ -3675,10 +3675,10 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>10.58</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C51">
         <v>10.58</v>
@@ -3807,10 +3807,10 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C52">
         <v>10.58</v>
@@ -3873,10 +3873,10 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C53">
         <v>10.58</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C54">
         <v>10.58</v>
@@ -4005,10 +4005,10 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C55">
         <v>10.58</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>10.58</v>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C57">
         <v>10.58</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C58">
         <v>10.58</v>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C59">
         <v>10.58</v>

--- a/dihadron/expdata/2000.xlsx
+++ b/dihadron/expdata/2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75216380-5DE3-764F-AAF6-86549ED9E7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE37924-909A-774D-9784-300C9A2228D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="25">
   <si>
     <t>col</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>2(pi+,pi-)</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>SIA</t>
   </si>
 </sst>
 </file>
@@ -429,3906 +435,4083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T59"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="11" max="12" width="12.83203125" customWidth="1"/>
-    <col min="13" max="18" width="10.83203125" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="19" width="10.83203125" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>10.58</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>10.58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.24</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.43</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.34</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.62</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.85</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L2" s="1">
-        <f>K2-1</f>
+      <c r="M2" s="1">
+        <f>L2-1</f>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>0.93</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>0.7</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>0.38</v>
       </c>
-      <c r="P2">
-        <f>-O2/100</f>
+      <c r="Q2">
+        <f>-P2/100</f>
         <v>-3.8E-3</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>0.09</v>
       </c>
-      <c r="R2">
-        <f>Q2/100</f>
+      <c r="S2">
+        <f>R2/100</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>0.27</v>
       </c>
-      <c r="T2">
-        <f>S2/100</f>
+      <c r="U2">
+        <f>T2/100</f>
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>10.58</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>10.58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0.43</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.34</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.62</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.84</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L59" si="0">K3-1</f>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M59" si="0">L3-1</f>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>0.93</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>0.92</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>0.39</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P59" si="1">-O3/100</f>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q59" si="1">-P3/100</f>
         <v>-3.9000000000000003E-3</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>0.08</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R56" si="2">Q3/100</f>
+      <c r="S3">
+        <f t="shared" ref="S3:S56" si="2">R3/100</f>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>0.27</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T56" si="3">S3/100</f>
+      <c r="U3">
+        <f t="shared" ref="U3:U56" si="3">T3/100</f>
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>10.58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>10.58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.36</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.43</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.35</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.62</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.84</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>0.93</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>0.87</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>0.42</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f t="shared" si="1"/>
         <v>-4.1999999999999997E-3</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>0.08</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>0.27</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="3"/>
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>10.58</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>10.58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.44</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.43</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>0.35</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>0.62</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>0.84</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>0.92</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>0.83</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>0.25</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f t="shared" si="1"/>
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>0.1</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f t="shared" si="3"/>
         <v>2.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>10.58</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>10.58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.54</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>0.43</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>0.35</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0.62</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>0.84</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>0.92</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>0.8</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>0.42</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="1"/>
         <v>-4.1999999999999997E-3</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="2"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="3"/>
         <v>2.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>10.58</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>10.58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>0.64</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0.43</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0.35</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.62</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.83</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>1.17</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>0.92</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>0.79</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>0.35</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="1"/>
         <v>-3.4999999999999996E-3</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>0.22</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="2"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>0.32</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="3"/>
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>10.58</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>10.58</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>0.74</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.44</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>0.35</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>0.62</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>0.83</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>1.17</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>0.92</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>0.8</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>0.16</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="1"/>
         <v>-1.6000000000000001E-3</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>0.37</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="2"/>
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>0.37</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="3"/>
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>10.58</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>10.58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>0.85</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0.45</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.35</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.63</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.83</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>1.17</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <f t="shared" si="0"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>0.92</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>0.81</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>0.32</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="1"/>
         <v>-3.2000000000000002E-3</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>0.64</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="2"/>
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>0.76</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="3"/>
         <v>7.6E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>10.58</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>10.58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.24</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.43</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.45</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0.62</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.86</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>0.93</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>0.99</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>0.91</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="1"/>
         <v>-9.1000000000000004E-3</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>0.1</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>0.33</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="3"/>
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>10.58</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>10.58</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.3</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>0.43</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>0.45</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0.62</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>0.85</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>0.93</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>0.97</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>0.51</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f t="shared" si="1"/>
         <v>-5.1000000000000004E-3</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>0.08</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>0.31</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="3"/>
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>10.58</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>10.58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>0.36</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>0.43</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>0.45</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>0.62</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>0.85</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>0.93</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>0.94</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>0.64</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f t="shared" si="1"/>
         <v>-6.4000000000000003E-3</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>0.08</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>0.33</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="3"/>
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>10.58</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>10.58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>0.44</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>0.43</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>0.45</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>0.62</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0.84</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>0.93</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>0.9</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>0.48</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f t="shared" si="1"/>
         <v>-4.7999999999999996E-3</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>0.08</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>0.34</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="3"/>
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>10.58</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>10.58</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>0.54</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>0.43</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>0.45</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>0.62</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>0.84</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>0.93</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>0.87</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>0.54</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f t="shared" si="1"/>
         <v>-5.4000000000000003E-3</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>0.12</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f t="shared" si="2"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="3"/>
         <v>2.8000000000000004E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15">
-        <v>10.58</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>10.58</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>0.64</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>0.43</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>0.45</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>0.62</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0.84</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>0.92</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>0.84</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>0.22</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <f t="shared" si="1"/>
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>0.18</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="2"/>
         <v>1.8E-3</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="1">
         <v>0.35</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="3"/>
         <v>3.4999999999999996E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>10.58</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>10.58</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>0.74</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>0.44</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>0.45</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>0.62</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>0.83</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>1.17</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <f t="shared" si="0"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>0.92</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>0.83</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>0.18</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <f t="shared" si="1"/>
         <v>-1.8E-3</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="2"/>
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>0.34</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f t="shared" si="3"/>
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>10.58</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>10.58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>0.85</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>0.44</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>0.46</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>0.63</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>0.83</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>1.17</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <f t="shared" si="0"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>0.92</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>0.81</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <f t="shared" si="1"/>
         <v>-2.8000000000000004E-3</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>0.48</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="2"/>
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>1.39</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f t="shared" si="3"/>
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>10.58</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>10.58</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>0.25</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>0.43</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>0.62</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>0.86</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>0.93</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>0.99</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>1.77</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <f t="shared" si="1"/>
         <v>-1.77E-2</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>0.11</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="2"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="1">
         <v>0.34</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f t="shared" si="3"/>
         <v>3.4000000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19">
-        <v>10.58</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>10.58</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
         <v>3</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>0.3</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>0.43</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>0.62</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>0.86</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>0.93</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>0.97</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>1.63</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f t="shared" si="1"/>
         <v>-1.6299999999999999E-2</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>0.08</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>0.31</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f t="shared" si="3"/>
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20">
-        <v>10.58</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>10.58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
         <v>3</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>0.36</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>0.43</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>0.62</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>0.85</v>
       </c>
-      <c r="K20" s="1">
+      <c r="L20" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>0.93</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>0.95</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>1.55</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <f t="shared" si="1"/>
         <v>-1.55E-2</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>0.08</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>0.32</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f t="shared" si="3"/>
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>10.58</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>10.58</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1">
         <v>3</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>0.45</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>0.43</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>0.62</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>0.85</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>0.93</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>0.92</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>1.44</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <f t="shared" si="1"/>
         <v>-1.44E-2</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>0.08</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <v>0.31</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f t="shared" si="3"/>
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>10.58</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>10.58</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1">
         <v>3</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>0.54</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>0.43</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>0.62</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>0.84</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>0.92</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>0.89</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <f t="shared" si="1"/>
         <v>-1.1399999999999999E-2</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>0.11</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="2"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="1">
         <v>0.36</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>10.58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>10.58</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>0.64</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>0.43</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>0.62</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>0.84</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>0.92</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>0.87</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f t="shared" si="1"/>
         <v>-1.1599999999999999E-2</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <v>0.16</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="S23" s="1">
+      <c r="T23" s="1">
         <v>0.3</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="3"/>
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24">
-        <v>10.58</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>10.58</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1">
         <v>3</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>0.74</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>0.44</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>0.62</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>0.84</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>0.92</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>0.86</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <f t="shared" si="1"/>
         <v>-1.15E-2</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <v>0.26</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="2"/>
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="S24" s="1">
+      <c r="T24" s="1">
         <v>0.41</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="3"/>
         <v>4.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25">
-        <v>10.58</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>10.58</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1">
         <v>3</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>0.85</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>0.44</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>0.63</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>0.83</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>1.17</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <f t="shared" si="0"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>0.92</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>0.85</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>0.71</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <f t="shared" si="1"/>
         <v>-7.0999999999999995E-3</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>0.43</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="2"/>
         <v>4.3E-3</v>
       </c>
-      <c r="S25" s="1">
+      <c r="T25" s="1">
         <v>0.49</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f t="shared" si="3"/>
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <v>10.58</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>10.58</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1">
         <v>4</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>0.25</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>0.43</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>0.67</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>0.62</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>0.87</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>0.93</v>
       </c>
-      <c r="N26" s="1">
+      <c r="O26" s="1">
         <v>0.99</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <f t="shared" si="1"/>
         <v>-2.2799999999999997E-2</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>0.17</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="2"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="S26" s="1">
+      <c r="T26" s="1">
         <v>0.44</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f t="shared" si="3"/>
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27">
-        <v>10.58</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>10.58</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
         <v>4</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>0.3</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>0.43</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>0.69</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>0.62</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>0.86</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>0.93</v>
       </c>
-      <c r="N27" s="1">
+      <c r="O27" s="1">
         <v>0.97</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>2.17</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <f t="shared" si="1"/>
         <v>-2.1700000000000001E-2</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>0.09</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="S27" s="1">
+      <c r="T27" s="1">
         <v>0.37</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f t="shared" si="3"/>
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>10.58</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>10.58</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1">
         <v>4</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>0.36</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>0.43</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>0.69</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>0.62</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>0.86</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>0.93</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="1">
         <v>0.95</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>2.13</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <f t="shared" si="1"/>
         <v>-2.1299999999999999E-2</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>0.08</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f t="shared" si="2"/>
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="S28" s="1">
+      <c r="T28" s="1">
         <v>0.36</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29">
-        <v>10.58</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>10.58</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>0.45</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>0.43</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>0.7</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>0.62</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>0.85</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.93</v>
       </c>
       <c r="N29" s="1">
         <v>0.93</v>
       </c>
       <c r="O29" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="P29" s="1">
         <v>2.09</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <f t="shared" si="1"/>
         <v>-2.0899999999999998E-2</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="2"/>
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="S29" s="1">
+      <c r="T29" s="1">
         <v>0.36</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f t="shared" si="3"/>
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30">
-        <v>10.58</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>10.58</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1">
         <v>4</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>0.54</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>0.43</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>0.7</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>0.62</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>0.85</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <v>0.92</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>0.9</v>
       </c>
-      <c r="O30" s="1">
+      <c r="P30" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <f t="shared" si="1"/>
         <v>-2.2000000000000002E-2</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="1">
         <v>0.1</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-      <c r="S30" s="1">
+      <c r="T30" s="1">
         <v>0.38</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <f t="shared" si="3"/>
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31">
-        <v>10.58</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>10.58</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1">
         <v>4</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>0.64</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>0.44</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>0.7</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>0.62</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <v>0.85</v>
       </c>
-      <c r="K31" s="1">
+      <c r="L31" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>0.92</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>0.88</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <f t="shared" si="1"/>
         <v>-2.4300000000000002E-2</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="R31" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="2"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="S31" s="1">
+      <c r="T31" s="1">
         <v>0.4</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32">
-        <v>10.58</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="B32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>10.58</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
         <v>4</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>0.74</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>0.44</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>0.7</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>0.62</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>0.84</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>0.92</v>
       </c>
-      <c r="N32" s="1">
+      <c r="O32" s="1">
         <v>0.87</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>2.4300000000000002</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <f t="shared" si="1"/>
         <v>-2.4300000000000002E-2</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="R32" s="1">
         <v>0.21</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="S32" s="1">
+      <c r="T32" s="1">
         <v>0.41</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f t="shared" si="3"/>
         <v>4.0999999999999995E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>11</v>
       </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33">
-        <v>10.58</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="B33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>10.58</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1">
         <v>4</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>0.86</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>0.45</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>0.71</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>0.63</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>0.83</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <v>1.17</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <f t="shared" si="0"/>
         <v>0.16999999999999993</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <v>0.92</v>
       </c>
-      <c r="N33" s="1">
+      <c r="O33" s="1">
         <v>0.85</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <v>2.4900000000000002</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <f t="shared" si="1"/>
         <v>-2.4900000000000002E-2</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="R33" s="1">
         <v>0.31</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="2"/>
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="S33" s="1">
+      <c r="T33" s="1">
         <v>0.5</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f t="shared" si="3"/>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34">
-        <v>10.58</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1">
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>10.58</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
         <v>5</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>0.26</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>0.43</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>0.79</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>0.62</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <v>0.87</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>0.93</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>0.99</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <v>1.1100000000000001</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <f t="shared" si="1"/>
         <v>-1.11E-2</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="R34" s="1">
         <v>0.77</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <f t="shared" si="2"/>
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="S34" s="1">
+      <c r="T34" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <f t="shared" si="3"/>
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35">
-        <v>10.58</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>10.58</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
         <v>5</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>0.31</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>0.43</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>0.82</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>0.62</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>0.87</v>
       </c>
-      <c r="K35" s="1">
+      <c r="L35" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <v>0.93</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>0.97</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="1">
         <v>2.56</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <f t="shared" si="1"/>
         <v>-2.5600000000000001E-2</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="R35" s="1">
         <v>0.18</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f t="shared" si="2"/>
         <v>1.8E-3</v>
       </c>
-      <c r="S35" s="1">
+      <c r="T35" s="1">
         <v>0.64</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <f t="shared" si="3"/>
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36">
-        <v>10.58</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>10.58</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1">
         <v>5</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>0.37</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>0.43</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>0.82</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>0.62</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>0.86</v>
       </c>
-      <c r="K36" s="1">
+      <c r="L36" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <v>0.93</v>
       </c>
-      <c r="N36" s="1">
+      <c r="O36" s="1">
         <v>0.96</v>
       </c>
-      <c r="O36" s="1">
+      <c r="P36" s="1">
         <v>2.72</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <f t="shared" si="1"/>
         <v>-2.7200000000000002E-2</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="R36" s="1">
         <v>0.11</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f t="shared" si="2"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="S36" s="1">
+      <c r="T36" s="1">
         <v>0.4</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <f t="shared" si="3"/>
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37">
-        <v>10.58</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="1">
+      <c r="B37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37">
+        <v>10.58</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1">
         <v>5</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>0.45</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>0.43</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="1">
         <v>0.85</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <v>0.62</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>0.86</v>
       </c>
-      <c r="K37" s="1">
+      <c r="L37" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <v>0.92</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="1">
         <v>0.94</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <v>3.26</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <f t="shared" si="1"/>
         <v>-3.2599999999999997E-2</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="R37" s="1">
         <v>0.09</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f t="shared" si="2"/>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T37" s="1">
         <v>0.44</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <f t="shared" si="3"/>
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38">
-        <v>10.58</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="1">
+      <c r="B38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>10.58</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
         <v>5</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>0.43</v>
       </c>
-      <c r="H38" s="1">
+      <c r="I38" s="1">
         <v>0.85</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <v>0.62</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>0.85</v>
       </c>
-      <c r="K38" s="1">
+      <c r="L38" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38" s="1">
         <v>0.92</v>
       </c>
-      <c r="N38" s="1">
+      <c r="O38" s="1">
         <v>0.91</v>
       </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
         <v>3.82</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <f t="shared" si="1"/>
         <v>-3.8199999999999998E-2</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="R38" s="1">
         <v>0.11</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <f t="shared" si="2"/>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="S38" s="1">
+      <c r="T38" s="1">
         <v>0.51</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <f t="shared" si="3"/>
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39">
-        <v>10.58</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="B39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>10.58</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
         <v>5</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>0.64</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>0.44</v>
       </c>
-      <c r="H39" s="1">
+      <c r="I39" s="1">
         <v>0.85</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>0.62</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <v>0.85</v>
       </c>
-      <c r="K39" s="1">
+      <c r="L39" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L39" s="1">
+      <c r="M39" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M39" s="1">
+      <c r="N39" s="1">
         <v>0.92</v>
       </c>
-      <c r="N39" s="1">
+      <c r="O39" s="1">
         <v>0.89</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <v>4.5599999999999996</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <f t="shared" si="1"/>
         <v>-4.5599999999999995E-2</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="R39" s="1">
         <v>0.15</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <f t="shared" si="2"/>
         <v>1.5E-3</v>
       </c>
-      <c r="S39" s="1">
+      <c r="T39" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <f t="shared" si="3"/>
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40">
-        <v>10.58</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="1">
+      <c r="B40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>10.58</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
         <v>5</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>0.74</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>0.45</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>0.85</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>0.62</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <v>0.84</v>
       </c>
-      <c r="K40" s="1">
+      <c r="L40" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <v>0.92</v>
       </c>
-      <c r="N40" s="1">
+      <c r="O40" s="1">
         <v>0.87</v>
       </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
         <v>5.71</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <f t="shared" si="1"/>
         <v>-5.7099999999999998E-2</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="R40" s="1">
         <v>0.22</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <f t="shared" si="2"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S40" s="1">
+      <c r="T40" s="1">
         <v>0.69</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <f t="shared" si="3"/>
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41">
-        <v>10.58</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="1">
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>10.58</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1">
         <v>5</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>0.86</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>0.43</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>0.85</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>0.63</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <v>0.84</v>
       </c>
-      <c r="K41" s="1">
+      <c r="L41" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
         <v>0.92</v>
       </c>
-      <c r="N41" s="1">
+      <c r="O41" s="1">
         <v>0.86</v>
       </c>
-      <c r="O41" s="1">
+      <c r="P41" s="1">
         <v>6.96</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <f t="shared" si="1"/>
         <v>-6.9599999999999995E-2</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="R41" s="1">
         <v>0.31</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <f t="shared" si="2"/>
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="S41" s="1">
+      <c r="T41" s="1">
         <v>0.81</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <f t="shared" si="3"/>
         <v>8.1000000000000013E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42">
-        <v>10.58</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="B42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>10.58</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1">
         <v>6</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>0.32</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>0.43</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>0.93</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>0.62</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <v>0.87</v>
       </c>
-      <c r="K42" s="1">
+      <c r="L42" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42" s="1">
         <v>0.93</v>
       </c>
-      <c r="N42" s="1">
+      <c r="O42" s="1">
         <v>0.98</v>
       </c>
-      <c r="O42" s="1">
+      <c r="P42" s="1">
         <v>3.34</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <f t="shared" si="1"/>
         <v>-3.3399999999999999E-2</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="R42" s="1">
         <v>0.6</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <f t="shared" si="2"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="S42" s="1">
+      <c r="T42" s="1">
         <v>0.81</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <f t="shared" si="3"/>
         <v>8.1000000000000013E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43">
-        <v>10.58</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="1">
+      <c r="B43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>10.58</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="1">
         <v>6</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>0.37</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>0.43</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>0.96</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>0.62</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <v>0.87</v>
       </c>
-      <c r="K43" s="1">
+      <c r="L43" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L43" s="1">
+      <c r="M43" s="1">
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="M43" s="1">
+      <c r="N43" s="1">
         <v>0.93</v>
       </c>
-      <c r="N43" s="1">
+      <c r="O43" s="1">
         <v>0.97</v>
       </c>
-      <c r="O43" s="1">
+      <c r="P43" s="1">
         <v>3.21</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <f t="shared" si="1"/>
         <v>-3.2099999999999997E-2</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="R43" s="1">
         <v>0.19</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <f t="shared" si="2"/>
         <v>1.9E-3</v>
       </c>
-      <c r="S43" s="1">
+      <c r="T43" s="1">
         <v>0.42</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <f t="shared" si="3"/>
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44">
-        <v>10.58</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1">
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>10.58</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="1">
         <v>6</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>0.45</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>0.43</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>0.98</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>0.62</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <v>0.86</v>
       </c>
-      <c r="K44" s="1">
+      <c r="L44" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L44" s="1">
+      <c r="M44" s="1">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="M44" s="1">
+      <c r="N44" s="1">
         <v>0.93</v>
       </c>
-      <c r="N44" s="1">
+      <c r="O44" s="1">
         <v>0.95</v>
       </c>
-      <c r="O44" s="1">
+      <c r="P44" s="1">
         <v>3.33</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <f t="shared" si="1"/>
         <v>-3.3300000000000003E-2</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="R44" s="1">
         <v>0.12</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <f t="shared" si="2"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="S44" s="1">
+      <c r="T44" s="1">
         <v>0.47</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <f t="shared" si="3"/>
         <v>4.6999999999999993E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45">
-        <v>10.58</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1">
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>10.58</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1">
         <v>6</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>0.44</v>
       </c>
-      <c r="H45" s="1">
+      <c r="I45" s="1">
         <v>0.99</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>0.62</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <v>0.86</v>
       </c>
-      <c r="K45" s="1">
+      <c r="L45" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0.92</v>
       </c>
       <c r="N45" s="1">
         <v>0.92</v>
       </c>
       <c r="O45" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="P45" s="1">
         <v>4.09</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <f t="shared" si="1"/>
         <v>-4.0899999999999999E-2</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="R45" s="1">
         <v>0.12</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f t="shared" si="2"/>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="S45" s="1">
+      <c r="T45" s="1">
         <v>0.51</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <f t="shared" si="3"/>
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46">
-        <v>10.58</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="1">
+      <c r="B46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>10.58</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1">
         <v>6</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>0.65</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>0.44</v>
       </c>
-      <c r="H46" s="1">
+      <c r="I46" s="1">
         <v>0.99</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>0.62</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <v>0.85</v>
       </c>
-      <c r="K46" s="1">
+      <c r="L46" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L46" s="1">
+      <c r="M46" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M46" s="1">
+      <c r="N46" s="1">
         <v>0.92</v>
       </c>
-      <c r="N46" s="1">
+      <c r="O46" s="1">
         <v>0.9</v>
       </c>
-      <c r="O46" s="1">
+      <c r="P46" s="1">
         <v>4.33</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <f t="shared" si="1"/>
         <v>-4.3299999999999998E-2</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="R46" s="1">
         <v>0.15</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f t="shared" si="2"/>
         <v>1.5E-3</v>
       </c>
-      <c r="S46" s="1">
+      <c r="T46" s="1">
         <v>0.54</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <f t="shared" si="3"/>
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47">
-        <v>10.58</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="B47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>10.58</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="1">
         <v>6</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>0.74</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>0.44</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>0.99</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>0.62</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1">
         <v>0.85</v>
       </c>
-      <c r="K47" s="1">
+      <c r="L47" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L47" s="1">
+      <c r="M47" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M47" s="1">
+      <c r="N47" s="1">
         <v>0.92</v>
       </c>
-      <c r="N47" s="1">
+      <c r="O47" s="1">
         <v>0.88</v>
       </c>
-      <c r="O47" s="1">
+      <c r="P47" s="1">
         <v>4.66</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <f t="shared" si="1"/>
         <v>-4.6600000000000003E-2</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="R47" s="1">
         <v>0.22</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <f t="shared" si="2"/>
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="S47" s="1">
+      <c r="T47" s="1">
         <v>0.6</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <f t="shared" si="3"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48">
-        <v>10.58</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="1">
+      <c r="B48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>10.58</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1">
         <v>6</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>0.85</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>0.45</v>
       </c>
-      <c r="H48" s="1">
+      <c r="I48" s="1">
         <v>0.99</v>
       </c>
-      <c r="I48" s="1">
+      <c r="J48" s="1">
         <v>0.63</v>
       </c>
-      <c r="J48" s="1">
+      <c r="K48" s="1">
         <v>0.84</v>
       </c>
-      <c r="K48" s="1">
+      <c r="L48" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="L48" s="1">
+      <c r="M48" s="1">
         <f t="shared" si="0"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="M48" s="1">
+      <c r="N48" s="1">
         <v>0.92</v>
       </c>
-      <c r="N48" s="1">
+      <c r="O48" s="1">
         <v>0.86</v>
       </c>
-      <c r="O48" s="1">
+      <c r="P48" s="1">
         <v>6.3</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <f t="shared" si="1"/>
         <v>-6.3E-2</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="R48" s="1">
         <v>0.33</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <f t="shared" si="2"/>
         <v>3.3E-3</v>
       </c>
-      <c r="S48" s="1">
+      <c r="T48" s="1">
         <v>0.73</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <f t="shared" si="3"/>
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49">
-        <v>10.58</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="B49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>10.58</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="1">
         <v>7</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>0.39</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>0.43</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>0.61</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1">
         <v>0.87</v>
       </c>
-      <c r="K49" s="1">
+      <c r="L49" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L49" s="1">
+      <c r="M49" s="1">
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="M49" s="1">
+      <c r="N49" s="1">
         <v>0.92</v>
       </c>
-      <c r="N49" s="1">
+      <c r="O49" s="1">
         <v>0.98</v>
       </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
         <v>3.2</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <f t="shared" si="1"/>
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="R49" s="1">
         <v>0.96</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <f t="shared" si="2"/>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="S49" s="1">
+      <c r="T49" s="1">
         <v>0.83</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <f t="shared" si="3"/>
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50">
-        <v>10.58</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="B50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>10.58</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1">
         <v>7</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>0.46</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>0.43</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>1.19</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <v>0.62</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1">
         <v>0.87</v>
       </c>
-      <c r="K50" s="1">
+      <c r="L50" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L50" s="1">
+      <c r="M50" s="1">
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="M50" s="1">
+      <c r="N50" s="1">
         <v>0.93</v>
       </c>
-      <c r="N50" s="1">
+      <c r="O50" s="1">
         <v>0.97</v>
       </c>
-      <c r="O50" s="1">
+      <c r="P50" s="1">
         <v>2.63</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <f t="shared" si="1"/>
         <v>-2.63E-2</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="R50" s="1">
         <v>0.23</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <f t="shared" si="2"/>
         <v>2.3E-3</v>
       </c>
-      <c r="S50" s="1">
+      <c r="T50" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <f t="shared" si="3"/>
         <v>5.5000000000000005E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51">
-        <v>10.58</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>10.58</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="1">
         <v>7</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>0.43</v>
       </c>
-      <c r="H51" s="1">
+      <c r="I51" s="1">
         <v>1.23</v>
       </c>
-      <c r="I51" s="1">
+      <c r="J51" s="1">
         <v>0.62</v>
       </c>
-      <c r="J51" s="1">
+      <c r="K51" s="1">
         <v>0.87</v>
       </c>
-      <c r="K51" s="1">
+      <c r="L51" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L51" s="1">
+      <c r="M51" s="1">
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="M51" s="1">
+      <c r="N51" s="1">
         <v>0.93</v>
       </c>
-      <c r="N51" s="1">
+      <c r="O51" s="1">
         <v>0.95</v>
       </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
         <v>2.82</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <f t="shared" si="1"/>
         <v>-2.8199999999999999E-2</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="R51" s="1">
         <v>0.16</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <f t="shared" si="2"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="S51" s="1">
+      <c r="T51" s="1">
         <v>0.53</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <f t="shared" si="3"/>
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52">
-        <v>10.58</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="B52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>10.58</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1">
         <v>7</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>0.65</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>0.43</v>
       </c>
-      <c r="H52" s="1">
+      <c r="I52" s="1">
         <v>1.25</v>
       </c>
-      <c r="I52" s="1">
+      <c r="J52" s="1">
         <v>0.62</v>
       </c>
-      <c r="J52" s="1">
+      <c r="K52" s="1">
         <v>0.86</v>
       </c>
-      <c r="K52" s="1">
+      <c r="L52" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L52" s="1">
+      <c r="M52" s="1">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="M52" s="1">
+      <c r="N52" s="1">
         <v>0.92</v>
       </c>
-      <c r="N52" s="1">
+      <c r="O52" s="1">
         <v>0.93</v>
       </c>
-      <c r="O52" s="1">
+      <c r="P52" s="1">
         <v>3.43</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <f t="shared" si="1"/>
         <v>-3.4300000000000004E-2</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="R52" s="1">
         <v>0.17</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <f t="shared" si="2"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="S52" s="1">
+      <c r="T52" s="1">
         <v>0.53</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <f t="shared" si="3"/>
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>11</v>
       </c>
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53">
-        <v>10.58</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="B53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53">
+        <v>10.58</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="1">
         <v>7</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>0.75</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>0.44</v>
       </c>
-      <c r="H53" s="1">
+      <c r="I53" s="1">
         <v>1.27</v>
       </c>
-      <c r="I53" s="1">
+      <c r="J53" s="1">
         <v>0.62</v>
       </c>
-      <c r="J53" s="1">
+      <c r="K53" s="1">
         <v>0.86</v>
       </c>
-      <c r="K53" s="1">
+      <c r="L53" s="1">
         <v>1.1399999999999999</v>
       </c>
-      <c r="L53" s="1">
+      <c r="M53" s="1">
         <f t="shared" si="0"/>
         <v>0.1399999999999999</v>
       </c>
-      <c r="M53" s="1">
+      <c r="N53" s="1">
         <v>0.92</v>
       </c>
-      <c r="N53" s="1">
+      <c r="O53" s="1">
         <v>0.91</v>
       </c>
-      <c r="O53" s="1">
+      <c r="P53" s="1">
         <v>5.18</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <f t="shared" si="1"/>
         <v>-5.1799999999999999E-2</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="R53" s="1">
         <v>0.21</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <f t="shared" si="2"/>
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="S53" s="1">
+      <c r="T53" s="1">
         <v>0.65</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <f t="shared" si="3"/>
         <v>6.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54">
-        <v>10.58</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="B54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>10.58</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1">
         <v>7</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>0.86</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>0.45</v>
       </c>
-      <c r="H54" s="1">
+      <c r="I54" s="1">
         <v>1.28</v>
       </c>
-      <c r="I54" s="1">
+      <c r="J54" s="1">
         <v>0.63</v>
       </c>
-      <c r="J54" s="1">
+      <c r="K54" s="1">
         <v>0.85</v>
       </c>
-      <c r="K54" s="1">
+      <c r="L54" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L54" s="1">
+      <c r="M54" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M54" s="1">
+      <c r="N54" s="1">
         <v>0.92</v>
       </c>
-      <c r="N54" s="1">
+      <c r="O54" s="1">
         <v>0.9</v>
       </c>
-      <c r="O54" s="1">
+      <c r="P54" s="1">
         <v>8.19</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <f t="shared" si="1"/>
         <v>-8.1900000000000001E-2</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="R54" s="1">
         <v>0.27</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <f t="shared" si="2"/>
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="S54" s="1">
+      <c r="T54" s="1">
         <v>1.08</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <f t="shared" si="3"/>
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55">
-        <v>10.58</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="B55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55">
+        <v>10.58</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="1">
+        <v>8</v>
+      </c>
+      <c r="G55" s="1">
         <v>0.49</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>0.41</v>
       </c>
-      <c r="H55" s="1">
+      <c r="I55" s="1">
         <v>1.52</v>
       </c>
-      <c r="I55" s="1">
+      <c r="J55" s="1">
         <v>0.6</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <v>0.87</v>
       </c>
-      <c r="K55" s="1">
+      <c r="L55" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L55" s="1">
+      <c r="M55" s="1">
         <f t="shared" si="0"/>
         <v>0.12999999999999989</v>
       </c>
-      <c r="M55" s="1">
+      <c r="N55" s="1">
         <v>0.92</v>
       </c>
-      <c r="N55" s="1">
+      <c r="O55" s="1">
         <v>0.99</v>
       </c>
-      <c r="O55" s="1">
+      <c r="P55" s="1">
         <v>4.51</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <f t="shared" si="1"/>
         <v>-4.5100000000000001E-2</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="R55" s="1">
         <v>0.17</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <f t="shared" si="2"/>
         <v>1.7000000000000001E-3</v>
       </c>
-      <c r="S55" s="1">
+      <c r="T55" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <f t="shared" si="3"/>
         <v>2.53E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56">
-        <v>10.58</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="1">
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56">
+        <v>10.58</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="1">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>0.42</v>
       </c>
-      <c r="H56" s="1">
+      <c r="I56" s="1">
         <v>1.67</v>
       </c>
-      <c r="I56" s="1">
+      <c r="J56" s="1">
         <v>0.7</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <v>0.85</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L56" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M56" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M56" s="1">
+      <c r="N56" s="1">
         <v>0.92</v>
       </c>
-      <c r="N56" s="1">
+      <c r="O56" s="1">
         <v>0.84</v>
       </c>
-      <c r="O56" s="1">
+      <c r="P56" s="1">
         <v>3.64</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <f t="shared" si="1"/>
         <v>-3.6400000000000002E-2</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="R56" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <f t="shared" si="2"/>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="S56" s="1">
+      <c r="T56" s="1">
         <v>1.29</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <f t="shared" si="3"/>
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
-      <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57">
-        <v>10.58</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="1">
+      <c r="B57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>10.58</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="1">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1">
         <v>0.65</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>0.41</v>
       </c>
-      <c r="H57" s="1">
+      <c r="I57" s="1">
         <v>1.69</v>
       </c>
-      <c r="I57" s="1">
+      <c r="J57" s="1">
         <v>0.71</v>
       </c>
-      <c r="J57" s="1">
+      <c r="K57" s="1">
         <v>0.85</v>
       </c>
-      <c r="K57" s="1">
+      <c r="L57" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L57" s="1">
+      <c r="M57" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M57" s="1">
+      <c r="N57" s="1">
         <v>0.93</v>
       </c>
-      <c r="N57" s="1">
+      <c r="O57" s="1">
         <v>0.83</v>
       </c>
-      <c r="O57" s="1">
+      <c r="P57" s="1">
         <v>3.74</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <f t="shared" si="1"/>
         <v>-3.7400000000000003E-2</v>
       </c>
-      <c r="Q57" s="1">
+      <c r="R57" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R57">
-        <f t="shared" ref="R57:R59" si="4">Q57/100</f>
+      <c r="S57">
+        <f t="shared" ref="S57:S59" si="4">R57/100</f>
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="S57" s="1">
+      <c r="T57" s="1">
         <v>0.9</v>
       </c>
-      <c r="T57">
-        <f t="shared" ref="T57:T59" si="5">S57/100</f>
+      <c r="U57">
+        <f t="shared" ref="U57:U59" si="5">T57/100</f>
         <v>9.0000000000000011E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58">
-        <v>10.58</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="1">
+      <c r="B58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>10.58</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="1">
+        <v>8</v>
+      </c>
+      <c r="G58" s="1">
         <v>0.75</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>0.41</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>1.71</v>
       </c>
-      <c r="I58" s="1">
+      <c r="J58" s="1">
         <v>0.71</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K58" s="1">
         <v>0.85</v>
       </c>
-      <c r="K58" s="1">
+      <c r="L58" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L58" s="1">
+      <c r="M58" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M58" s="1">
+      <c r="N58" s="1">
         <v>0.93</v>
       </c>
-      <c r="N58" s="1">
+      <c r="O58" s="1">
         <v>0.82</v>
       </c>
-      <c r="O58" s="1">
+      <c r="P58" s="1">
         <v>4.07</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <f t="shared" si="1"/>
         <v>-4.07E-2</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="R58" s="1">
         <v>0.16</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <f t="shared" si="4"/>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="S58" s="1">
+      <c r="T58" s="1">
         <v>1.06</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <f t="shared" si="5"/>
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>11</v>
       </c>
-      <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59">
-        <v>10.58</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="B59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59">
+        <v>10.58</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="1">
+        <v>8</v>
+      </c>
+      <c r="G59" s="1">
         <v>0.86</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>0.42</v>
       </c>
-      <c r="H59" s="1">
+      <c r="I59" s="1">
         <v>1.74</v>
       </c>
-      <c r="I59" s="1">
+      <c r="J59" s="1">
         <v>0.72</v>
       </c>
-      <c r="J59" s="1">
+      <c r="K59" s="1">
         <v>0.85</v>
       </c>
-      <c r="K59" s="1">
+      <c r="L59" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="L59" s="1">
+      <c r="M59" s="1">
         <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
-      <c r="M59" s="1">
+      <c r="N59" s="1">
         <v>0.92</v>
       </c>
-      <c r="N59" s="1">
+      <c r="O59" s="1">
         <v>0.82</v>
       </c>
-      <c r="O59" s="1">
+      <c r="P59" s="1">
         <v>6.41</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <f t="shared" si="1"/>
         <v>-6.4100000000000004E-2</v>
       </c>
-      <c r="Q59" s="1">
+      <c r="R59" s="1">
         <v>0.19</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <f t="shared" si="4"/>
         <v>1.9E-3</v>
       </c>
-      <c r="S59" s="1">
+      <c r="T59" s="1">
         <v>1.8</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <f t="shared" si="5"/>
         <v>1.8000000000000002E-2</v>
       </c>

--- a/dihadron/expdata/2000.xlsx
+++ b/dihadron/expdata/2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE37924-909A-774D-9784-300C9A2228D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14213F55-CB91-894B-8BE7-95354542E3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>z1</t>
-  </si>
-  <si>
-    <t>m1</t>
   </si>
   <si>
     <t>obs</t>
@@ -91,9 +88,6 @@
     <t>z2</t>
   </si>
   <si>
-    <t>m2</t>
-  </si>
-  <si>
     <t>hadrons</t>
   </si>
   <si>
@@ -104,6 +98,12 @@
   </si>
   <si>
     <t>SIA</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,81 +454,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>10.58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -585,19 +585,19 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>10.58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -654,19 +654,19 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>10.58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -723,19 +723,19 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>10.58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -792,19 +792,19 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>10.58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -861,19 +861,19 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>10.58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -930,19 +930,19 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>10.58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -999,19 +999,19 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9">
         <v>10.58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1068,19 +1068,19 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>10.58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1137,19 +1137,19 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>10.58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1206,19 +1206,19 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>10.58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1275,19 +1275,19 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>10.58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1344,19 +1344,19 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>10.58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
@@ -1413,19 +1413,19 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>10.58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -1482,19 +1482,19 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>10.58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1551,19 +1551,19 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17">
         <v>10.58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -1620,19 +1620,19 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>10.58</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -1689,19 +1689,19 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>10.58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -1758,19 +1758,19 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>10.58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
@@ -1827,19 +1827,19 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>10.58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
@@ -1896,19 +1896,19 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>10.58</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
@@ -1965,19 +1965,19 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>10.58</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
@@ -2034,19 +2034,19 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>10.58</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1">
         <v>3</v>
@@ -2103,19 +2103,19 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <v>10.58</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
@@ -2172,19 +2172,19 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>10.58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
@@ -2241,19 +2241,19 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27">
         <v>10.58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1">
         <v>4</v>
@@ -2310,19 +2310,19 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>10.58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1">
         <v>4</v>
@@ -2379,19 +2379,19 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29">
         <v>10.58</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1">
         <v>4</v>
@@ -2448,19 +2448,19 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30">
         <v>10.58</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1">
         <v>4</v>
@@ -2517,19 +2517,19 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31">
         <v>10.58</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1">
         <v>4</v>
@@ -2586,19 +2586,19 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32">
         <v>10.58</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1">
         <v>4</v>
@@ -2655,19 +2655,19 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>10.58</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1">
         <v>4</v>
@@ -2724,19 +2724,19 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D34">
         <v>10.58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
@@ -2793,19 +2793,19 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D35">
         <v>10.58</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1">
         <v>5</v>
@@ -2862,19 +2862,19 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36">
         <v>10.58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1">
         <v>5</v>
@@ -2931,19 +2931,19 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37">
         <v>10.58</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
@@ -3000,19 +3000,19 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D38">
         <v>10.58</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F38" s="1">
         <v>5</v>
@@ -3069,19 +3069,19 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D39">
         <v>10.58</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -3138,19 +3138,19 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40">
         <v>10.58</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1">
         <v>5</v>
@@ -3207,19 +3207,19 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D41">
         <v>10.58</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1">
         <v>5</v>
@@ -3276,19 +3276,19 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D42">
         <v>10.58</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F42" s="1">
         <v>6</v>
@@ -3345,19 +3345,19 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D43">
         <v>10.58</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F43" s="1">
         <v>6</v>
@@ -3414,19 +3414,19 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D44">
         <v>10.58</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" s="1">
         <v>6</v>
@@ -3483,19 +3483,19 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D45">
         <v>10.58</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F45" s="1">
         <v>6</v>
@@ -3552,19 +3552,19 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>10.58</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F46" s="1">
         <v>6</v>
@@ -3621,19 +3621,19 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <v>10.58</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F47" s="1">
         <v>6</v>
@@ -3690,19 +3690,19 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D48">
         <v>10.58</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F48" s="1">
         <v>6</v>
@@ -3759,19 +3759,19 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>10.58</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F49" s="1">
         <v>7</v>
@@ -3828,19 +3828,19 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D50">
         <v>10.58</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" s="1">
         <v>7</v>
@@ -3897,19 +3897,19 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D51">
         <v>10.58</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="1">
         <v>7</v>
@@ -3966,19 +3966,19 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D52">
         <v>10.58</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F52" s="1">
         <v>7</v>
@@ -4035,19 +4035,19 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D53">
         <v>10.58</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F53" s="1">
         <v>7</v>
@@ -4104,19 +4104,19 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D54">
         <v>10.58</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" s="1">
         <v>7</v>
@@ -4173,19 +4173,19 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D55">
         <v>10.58</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F55" s="1">
         <v>8</v>
@@ -4242,19 +4242,19 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D56">
         <v>10.58</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F56" s="1">
         <v>8</v>
@@ -4311,19 +4311,19 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D57">
         <v>10.58</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F57" s="1">
         <v>8</v>
@@ -4380,19 +4380,19 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D58">
         <v>10.58</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F58" s="1">
         <v>8</v>
@@ -4449,19 +4449,19 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D59">
         <v>10.58</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="1">
         <v>8</v>

--- a/dihadron/expdata/2000.xlsx
+++ b/dihadron/expdata/2000.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14213F55-CB91-894B-8BE7-95354542E3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A66C78-7A74-214A-9E97-6FE62348A264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="25">
   <si>
     <t>col</t>
-  </si>
-  <si>
-    <t>RS</t>
   </si>
   <si>
     <t>z1</t>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Q2</t>
   </si>
 </sst>
 </file>
@@ -438,7 +438,7 @@
   <dimension ref="A1:U59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -454,81 +454,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <v>10.58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -585,19 +585,19 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>10.58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -654,19 +654,19 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>10.58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -723,19 +723,19 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>10.58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -792,19 +792,19 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>10.58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -861,19 +861,19 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>10.58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -930,19 +930,19 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>10.58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -999,19 +999,19 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>10.58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1068,19 +1068,19 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>10.58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
@@ -1137,19 +1137,19 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>10.58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1206,19 +1206,19 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>10.58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1275,19 +1275,19 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>10.58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1344,19 +1344,19 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>10.58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
@@ -1413,19 +1413,19 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>10.58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -1482,19 +1482,19 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16">
         <v>10.58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1551,19 +1551,19 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>10.58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -1620,19 +1620,19 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>10.58</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
@@ -1689,19 +1689,19 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>10.58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -1758,19 +1758,19 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>10.58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
@@ -1827,19 +1827,19 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>10.58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
@@ -1896,19 +1896,19 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>10.58</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
@@ -1965,19 +1965,19 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>10.58</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" s="1">
         <v>3</v>
@@ -2034,19 +2034,19 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24">
         <v>10.58</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="1">
         <v>3</v>
@@ -2103,19 +2103,19 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25">
         <v>10.58</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1">
         <v>3</v>
@@ -2172,19 +2172,19 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26">
         <v>10.58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
@@ -2241,19 +2241,19 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <v>10.58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" s="1">
         <v>4</v>
@@ -2310,19 +2310,19 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>10.58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" s="1">
         <v>4</v>
@@ -2379,19 +2379,19 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>10.58</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1">
         <v>4</v>
@@ -2448,19 +2448,19 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>10.58</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1">
         <v>4</v>
@@ -2517,19 +2517,19 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>10.58</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" s="1">
         <v>4</v>
@@ -2586,19 +2586,19 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>10.58</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" s="1">
         <v>4</v>
@@ -2655,19 +2655,19 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>10.58</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="1">
         <v>4</v>
@@ -2724,19 +2724,19 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <v>10.58</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="1">
         <v>5</v>
@@ -2793,19 +2793,19 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>10.58</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" s="1">
         <v>5</v>
@@ -2862,19 +2862,19 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>10.58</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36" s="1">
         <v>5</v>
@@ -2931,19 +2931,19 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37">
         <v>10.58</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
@@ -3000,19 +3000,19 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>10.58</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" s="1">
         <v>5</v>
@@ -3069,19 +3069,19 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>10.58</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" s="1">
         <v>5</v>
@@ -3138,19 +3138,19 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40">
         <v>10.58</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" s="1">
         <v>5</v>
@@ -3207,19 +3207,19 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>10.58</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" s="1">
         <v>5</v>
@@ -3276,19 +3276,19 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>10.58</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" s="1">
         <v>6</v>
@@ -3345,19 +3345,19 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43">
         <v>10.58</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F43" s="1">
         <v>6</v>
@@ -3414,19 +3414,19 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44">
         <v>10.58</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44" s="1">
         <v>6</v>
@@ -3483,19 +3483,19 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>10.58</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" s="1">
         <v>6</v>
@@ -3552,19 +3552,19 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>10.58</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" s="1">
         <v>6</v>
@@ -3621,19 +3621,19 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>10.58</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F47" s="1">
         <v>6</v>
@@ -3690,19 +3690,19 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>10.58</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1">
         <v>6</v>
@@ -3759,19 +3759,19 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>10.58</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" s="1">
         <v>7</v>
@@ -3828,19 +3828,19 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <v>10.58</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F50" s="1">
         <v>7</v>
@@ -3897,19 +3897,19 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51">
         <v>10.58</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" s="1">
         <v>7</v>
@@ -3966,19 +3966,19 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52">
         <v>10.58</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" s="1">
         <v>7</v>
@@ -4035,19 +4035,19 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53">
         <v>10.58</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" s="1">
         <v>7</v>
@@ -4104,19 +4104,19 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54">
         <v>10.58</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54" s="1">
         <v>7</v>
@@ -4173,19 +4173,19 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55">
         <v>10.58</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" s="1">
         <v>8</v>
@@ -4242,19 +4242,19 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56">
         <v>10.58</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F56" s="1">
         <v>8</v>
@@ -4311,19 +4311,19 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57">
         <v>10.58</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" s="1">
         <v>8</v>
@@ -4380,19 +4380,19 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58">
         <v>10.58</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" s="1">
         <v>8</v>
@@ -4449,19 +4449,19 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59">
         <v>10.58</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" s="1">
         <v>8</v>
